--- a/Code/Results/Cases/Case_5_7/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_7/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,37 +409,37 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>26.4234750373145</v>
+        <v>24.50195342105289</v>
       </c>
       <c r="C2">
-        <v>19.99886229031786</v>
+        <v>17.80491887943708</v>
       </c>
       <c r="D2">
-        <v>9.388288595591627</v>
+        <v>3.232436531444021</v>
       </c>
       <c r="E2">
-        <v>30.77377411776597</v>
+        <v>6.888059901854484</v>
       </c>
       <c r="F2">
-        <v>63.56182861480239</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>4.080468853276381</v>
+        <v>64.25268216029843</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>7.311514655261682</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -450,37 +450,37 @@
       <c r="M2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>24.38484812770647</v>
+        <v>22.67778339701363</v>
       </c>
       <c r="C3">
-        <v>18.46397124672549</v>
+        <v>16.45053660850813</v>
       </c>
       <c r="D3">
-        <v>8.849519637809431</v>
+        <v>3.043249100804726</v>
       </c>
       <c r="E3">
-        <v>28.31226926357537</v>
+        <v>6.720934327283079</v>
       </c>
       <c r="F3">
-        <v>59.19036081192131</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>4.080468853276381</v>
+        <v>60.68416153817483</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>7.132029754693078</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -491,37 +491,37 @@
       <c r="M3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>23.08887446149555</v>
+        <v>21.5151341420705</v>
       </c>
       <c r="C4">
-        <v>17.49128058524141</v>
+        <v>15.58776202080344</v>
       </c>
       <c r="D4">
-        <v>8.517092694060617</v>
+        <v>2.92562791749024</v>
       </c>
       <c r="E4">
-        <v>26.76069239565595</v>
+        <v>6.625468090713365</v>
       </c>
       <c r="F4">
-        <v>56.45050333521705</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>4.080468853276381</v>
+        <v>58.46631482358864</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>7.026744131200399</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -532,37 +532,37 @@
       <c r="M4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>22.5488165671451</v>
+        <v>21.03031415683606</v>
       </c>
       <c r="C5">
-        <v>17.08658420349867</v>
+        <v>15.22802526081181</v>
       </c>
       <c r="D5">
-        <v>8.381070846560407</v>
+        <v>2.877269886932192</v>
       </c>
       <c r="E5">
-        <v>26.11693298543749</v>
+        <v>6.588314321210545</v>
       </c>
       <c r="F5">
-        <v>55.31894217127872</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>4.080468853276381</v>
+        <v>57.55582136839335</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>6.985026287153473</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -573,37 +573,37 @@
       <c r="M5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>22.45839791254524</v>
+        <v>20.94913626842791</v>
       </c>
       <c r="C6">
-        <v>17.01886368656673</v>
+        <v>15.16779119475024</v>
       </c>
       <c r="D6">
-        <v>8.358447793206549</v>
+        <v>2.869212811451324</v>
       </c>
       <c r="E6">
-        <v>26.00930803074004</v>
+        <v>6.582249318256876</v>
       </c>
       <c r="F6">
-        <v>55.13011678721339</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>4.080468853276381</v>
+        <v>57.40423567586459</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>6.978169431292153</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -614,37 +614,37 @@
       <c r="M6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>23.08164037263802</v>
+        <v>21.50864071280945</v>
       </c>
       <c r="C7">
-        <v>17.48585724081155</v>
+        <v>15.58294384471622</v>
       </c>
       <c r="D7">
-        <v>8.515260655957015</v>
+        <v>2.92497754051293</v>
       </c>
       <c r="E7">
-        <v>26.75205855939405</v>
+        <v>6.624959998179279</v>
       </c>
       <c r="F7">
-        <v>56.43530467096087</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>4.080468853276381</v>
+        <v>58.45406250114142</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>7.026176764767403</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -655,37 +655,37 @@
       <c r="M7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>25.72920989287836</v>
+        <v>23.88160239197631</v>
       </c>
       <c r="C8">
-        <v>19.47544971045623</v>
+        <v>17.34419315054866</v>
       </c>
       <c r="D8">
-        <v>9.202748790060806</v>
+        <v>3.167467720998129</v>
       </c>
       <c r="E8">
-        <v>29.93249018775551</v>
+        <v>6.828919885517617</v>
       </c>
       <c r="F8">
-        <v>62.06535951554753</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>4.080468853276381</v>
+        <v>63.02773961576818</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>7.24857462549662</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -696,37 +696,37 @@
       <c r="M8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>30.6151209524473</v>
+        <v>28.21625964616571</v>
       </c>
       <c r="C9">
-        <v>23.17640264765306</v>
+        <v>20.56818367508401</v>
       </c>
       <c r="D9">
-        <v>10.54862083012398</v>
+        <v>3.634865600229964</v>
       </c>
       <c r="E9">
-        <v>35.92794154082256</v>
+        <v>7.288307014313461</v>
       </c>
       <c r="F9">
-        <v>72.75185367649347</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>4.080468853276381</v>
+        <v>71.79924619143566</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>7.726554886654058</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -737,37 +737,37 @@
       <c r="M9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>34.10049648182896</v>
+        <v>31.24191775545633</v>
       </c>
       <c r="C10">
-        <v>25.84552666713169</v>
+        <v>22.82773366335754</v>
       </c>
       <c r="D10">
-        <v>11.55880171813866</v>
+        <v>3.97956215666987</v>
       </c>
       <c r="E10">
-        <v>40.33092135322983</v>
+        <v>7.667097721746662</v>
       </c>
       <c r="F10">
-        <v>80.76514898864107</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>4.080468853276381</v>
+        <v>78.17063731819964</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>8.108484105006351</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -778,37 +778,37 @@
       <c r="M10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>35.69037928621933</v>
+        <v>32.59460012126184</v>
       </c>
       <c r="C11">
-        <v>27.07283950664322</v>
+        <v>23.84121279681648</v>
       </c>
       <c r="D11">
-        <v>12.03142000939431</v>
+        <v>4.138573992145085</v>
       </c>
       <c r="E11">
-        <v>42.38294602322394</v>
+        <v>7.850058059517385</v>
       </c>
       <c r="F11">
-        <v>84.44266199602254</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>4.080468853276381</v>
+        <v>81.07258883271906</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>8.290599262609099</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -819,37 +819,37 @@
       <c r="M11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>36.29636231448981</v>
+        <v>33.10459669394875</v>
       </c>
       <c r="C12">
-        <v>27.54243372989783</v>
+        <v>24.22392736546109</v>
       </c>
       <c r="D12">
-        <v>12.21335939014254</v>
+        <v>4.199317805556694</v>
       </c>
       <c r="E12">
-        <v>43.17331847737465</v>
+        <v>7.921070317605385</v>
       </c>
       <c r="F12">
-        <v>85.84726717030948</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>4.080468853276381</v>
+        <v>82.17437228027957</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>8.360961023318488</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -860,37 +860,37 @@
       <c r="M12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>36.16561187650134</v>
+        <v>32.99483735468721</v>
       </c>
       <c r="C13">
-        <v>27.44102345508451</v>
+        <v>24.1415317892341</v>
       </c>
       <c r="D13">
-        <v>12.17402115518748</v>
+        <v>4.186208021490021</v>
       </c>
       <c r="E13">
-        <v>43.00237729302152</v>
+        <v>7.905695807622711</v>
       </c>
       <c r="F13">
-        <v>85.54407671466608</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>4.080468853276381</v>
+        <v>81.93690973450749</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>8.345741422803247</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -901,37 +901,37 @@
       <c r="M13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13">
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>35.74013170463823</v>
+        <v>32.63659487259304</v>
       </c>
       <c r="C14">
-        <v>27.11135533341069</v>
+        <v>23.87271373306104</v>
       </c>
       <c r="D14">
-        <v>12.04632091510747</v>
+        <v>4.143559401167833</v>
       </c>
       <c r="E14">
-        <v>42.44765844908599</v>
+        <v>7.85586426387974</v>
       </c>
       <c r="F14">
-        <v>84.55792630318818</v>
-      </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>4.080468853276381</v>
+        <v>81.16315932290561</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>8.296358612860011</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -942,37 +942,37 @@
       <c r="M14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13">
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>35.48014364190327</v>
+        <v>32.416909723209</v>
       </c>
       <c r="C15">
-        <v>26.91016096761659</v>
+        <v>23.70794976250604</v>
       </c>
       <c r="D15">
-        <v>11.96852738362011</v>
+        <v>4.117512059405215</v>
       </c>
       <c r="E15">
-        <v>42.1098404086239</v>
+        <v>7.825573145607725</v>
       </c>
       <c r="F15">
-        <v>83.95571276964839</v>
-      </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>4.080468853276381</v>
+        <v>80.68967248226959</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>8.266299124632651</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -983,37 +983,37 @@
       <c r="M15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>33.99693745489056</v>
+        <v>31.15313380558704</v>
       </c>
       <c r="C16">
-        <v>25.76581099699495</v>
+        <v>22.76129101644484</v>
       </c>
       <c r="D16">
-        <v>11.52826172298007</v>
+        <v>3.969231724087634</v>
       </c>
       <c r="E16">
-        <v>40.19828504984866</v>
+        <v>7.655370639558279</v>
       </c>
       <c r="F16">
-        <v>80.52603259143342</v>
-      </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>4.080468853276381</v>
+        <v>77.98124546730145</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>8.096766328250791</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1024,37 +1024,37 @@
       <c r="M16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:13">
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>33.09015736458159</v>
+        <v>30.37252722577047</v>
       </c>
       <c r="C17">
-        <v>25.06893172664895</v>
+        <v>22.17749994514692</v>
       </c>
       <c r="D17">
-        <v>11.26217231165911</v>
+        <v>3.878966954641651</v>
       </c>
       <c r="E17">
-        <v>39.04192034363454</v>
+        <v>7.553806418599067</v>
       </c>
       <c r="F17">
-        <v>78.43472975276252</v>
-      </c>
-      <c r="G17">
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <v>4.080468853276381</v>
+        <v>76.32208854280557</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>7.995029775154807</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1065,37 +1065,37 @@
       <c r="M17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:13">
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>32.56876172698243</v>
+        <v>29.92122711363499</v>
       </c>
       <c r="C18">
-        <v>24.66911465548086</v>
+        <v>21.8402911135239</v>
       </c>
       <c r="D18">
-        <v>11.11027157901295</v>
+        <v>3.827241464442351</v>
       </c>
       <c r="E18">
-        <v>38.38094843792835</v>
+        <v>7.496376549921243</v>
       </c>
       <c r="F18">
-        <v>77.23433467117515</v>
-      </c>
-      <c r="G18">
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <v>4.080468853276381</v>
+        <v>75.36794187012033</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>7.937287306766101</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1106,37 +1106,37 @@
       <c r="M18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>32.39217126398298</v>
+        <v>29.76799555302053</v>
       </c>
       <c r="C19">
-        <v>24.53384343894225</v>
+        <v>21.72584597040394</v>
       </c>
       <c r="D19">
-        <v>11.05901096618923</v>
+        <v>3.809755516983889</v>
       </c>
       <c r="E19">
-        <v>38.15771199574974</v>
+        <v>7.477096251519718</v>
       </c>
       <c r="F19">
-        <v>76.82814258416828</v>
-      </c>
-      <c r="G19">
-        <v>0</v>
-      </c>
-      <c r="H19">
-        <v>4.080468853276381</v>
+        <v>75.04485059782461</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>7.917864531776209</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1147,37 +1147,37 @@
       <c r="M19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:13">
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>33.18664885298153</v>
+        <v>30.45585619188648</v>
       </c>
       <c r="C20">
-        <v>25.14299322364008</v>
+        <v>22.23978673976878</v>
       </c>
       <c r="D20">
-        <v>11.29037273589011</v>
+        <v>3.888554508647953</v>
       </c>
       <c r="E20">
-        <v>39.16455127020188</v>
+        <v>7.564514689919339</v>
       </c>
       <c r="F20">
-        <v>78.65705230527773</v>
-      </c>
-      <c r="G20">
-        <v>0</v>
-      </c>
-      <c r="H20">
-        <v>4.080468853276381</v>
+        <v>76.49867761023178</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>8.005778495604424</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1188,37 +1188,37 @@
       <c r="M20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:13">
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>35.86496630445502</v>
+        <v>32.74186922178791</v>
       </c>
       <c r="C21">
-        <v>27.20802630276621</v>
+        <v>23.95169187578166</v>
       </c>
       <c r="D21">
-        <v>12.08373806170879</v>
+        <v>4.156070003119846</v>
       </c>
       <c r="E21">
-        <v>42.61016862356581</v>
+        <v>7.870452171702857</v>
       </c>
       <c r="F21">
-        <v>84.84718327092956</v>
-      </c>
-      <c r="G21">
-        <v>0</v>
-      </c>
-      <c r="H21">
-        <v>4.080468853276381</v>
+        <v>81.39032789316346</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>8.3108237407062</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1229,37 +1229,37 @@
       <c r="M21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>37.64089250772431</v>
+        <v>34.2236573227834</v>
       </c>
       <c r="C22">
-        <v>28.58817570060622</v>
+        <v>25.06495508198012</v>
       </c>
       <c r="D22">
-        <v>12.62043690929643</v>
+        <v>4.334134301555769</v>
       </c>
       <c r="E22">
-        <v>44.94478676273031</v>
+        <v>8.080620936771464</v>
       </c>
       <c r="F22">
-        <v>88.96865687882396</v>
-      </c>
-      <c r="G22">
-        <v>0</v>
-      </c>
-      <c r="H22">
-        <v>4.080468853276381</v>
+        <v>84.60575771580908</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>8.518477232722848</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1270,37 +1270,37 @@
       <c r="M22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:13">
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>36.68925693826737</v>
+        <v>33.43345179111449</v>
       </c>
       <c r="C23">
-        <v>27.84746056301008</v>
+        <v>24.47089500113886</v>
       </c>
       <c r="D23">
-        <v>12.33183565613295</v>
+        <v>4.238717533205567</v>
       </c>
       <c r="E23">
-        <v>43.68836261057393</v>
+        <v>7.967431532817725</v>
       </c>
       <c r="F23">
-        <v>86.75872425500344</v>
-      </c>
-      <c r="G23">
-        <v>0</v>
-      </c>
-      <c r="H23">
-        <v>4.080468853276381</v>
+        <v>82.88694537946033</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>8.406809791934712</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1311,37 +1311,37 @@
       <c r="M23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:13">
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>33.14302551706285</v>
+        <v>30.41819109703914</v>
       </c>
       <c r="C24">
-        <v>25.10950764703843</v>
+        <v>22.21163187225469</v>
       </c>
       <c r="D24">
-        <v>11.27762004292854</v>
+        <v>3.884219464565042</v>
       </c>
       <c r="E24">
-        <v>39.10909830811917</v>
+        <v>7.559670501982153</v>
       </c>
       <c r="F24">
-        <v>78.55653480363642</v>
-      </c>
-      <c r="G24">
-        <v>0</v>
-      </c>
-      <c r="H24">
-        <v>4.080468853276381</v>
+        <v>76.41884271835842</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>8.000916685506136</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1352,37 +1352,37 @@
       <c r="M24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:13">
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>29.31887174341284</v>
+        <v>27.07458862239124</v>
       </c>
       <c r="C25">
-        <v>22.19033144700976</v>
+        <v>19.71780539835031</v>
       </c>
       <c r="D25">
-        <v>10.18291235798907</v>
+        <v>3.508733156904424</v>
       </c>
       <c r="E25">
-        <v>34.31926875976241</v>
+        <v>7.157229291727249</v>
       </c>
       <c r="F25">
-        <v>69.87664922851232</v>
-      </c>
-      <c r="G25">
-        <v>0</v>
-      </c>
-      <c r="H25">
-        <v>4.080468853276381</v>
+        <v>69.44402110970745</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>7.592306611289298</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1391,6 +1391,12 @@
         <v>0</v>
       </c>
       <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_5_7/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_7/res_line/loading_percent.xlsx
@@ -421,37 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>24.50195342105289</v>
+        <v>13.68198413835035</v>
       </c>
       <c r="C2">
-        <v>17.80491887943708</v>
+        <v>10.51621557134826</v>
       </c>
       <c r="D2">
-        <v>3.232436531444021</v>
+        <v>3.808053934905866</v>
       </c>
       <c r="E2">
-        <v>6.888059901854484</v>
+        <v>7.659151559605302</v>
       </c>
       <c r="F2">
-        <v>64.25268216029843</v>
+        <v>34.27846458685641</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>4.251792669778333</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>21.76030457919184</v>
       </c>
       <c r="J2">
-        <v>7.311514655261682</v>
+        <v>6.062563159154809</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>12.96946285072455</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>12.55151386374915</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>15.49666412758237</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -462,37 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>22.67778339701363</v>
+        <v>12.86084975653325</v>
       </c>
       <c r="C3">
-        <v>16.45053660850813</v>
+        <v>9.927476424180368</v>
       </c>
       <c r="D3">
-        <v>3.043249100804726</v>
+        <v>3.660111077491207</v>
       </c>
       <c r="E3">
-        <v>6.720934327283079</v>
+        <v>7.499207319210186</v>
       </c>
       <c r="F3">
-        <v>60.68416153817483</v>
+        <v>33.60550443448369</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>4.251792669778333</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>21.61220658509382</v>
       </c>
       <c r="J3">
-        <v>7.132029754693078</v>
+        <v>6.062978711430393</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>12.29298177779011</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>12.11245650395942</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>15.67238020022948</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -503,37 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>21.5151341420705</v>
+        <v>12.33750428241889</v>
       </c>
       <c r="C4">
-        <v>15.58776202080344</v>
+        <v>9.555974878701635</v>
       </c>
       <c r="D4">
-        <v>2.92562791749024</v>
+        <v>3.567775473559622</v>
       </c>
       <c r="E4">
-        <v>6.625468090713365</v>
+        <v>7.403467377653869</v>
       </c>
       <c r="F4">
-        <v>58.46631482358864</v>
+        <v>33.21130170663674</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>4.251792669778333</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>21.53518692063863</v>
       </c>
       <c r="J4">
-        <v>7.026744131200399</v>
+        <v>6.065689387526939</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>11.86680164069933</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>11.8425284036073</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>15.78447490809888</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -544,37 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.03031415683606</v>
+        <v>12.11958794198666</v>
       </c>
       <c r="C5">
-        <v>15.22802526081181</v>
+        <v>9.402220843347459</v>
       </c>
       <c r="D5">
-        <v>2.877269886932192</v>
+        <v>3.529826875894433</v>
       </c>
       <c r="E5">
-        <v>6.588314321210545</v>
+        <v>7.365105027859961</v>
       </c>
       <c r="F5">
-        <v>57.55582136839335</v>
+        <v>33.05545489331016</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>4.251792669778333</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>21.50718585624757</v>
       </c>
       <c r="J5">
-        <v>6.985026287153473</v>
+        <v>6.067396366830804</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>11.69061550676505</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>11.7325914360218</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>15.83120078479423</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -585,37 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>20.94913626842791</v>
+        <v>12.08312821081354</v>
       </c>
       <c r="C6">
-        <v>15.16779119475024</v>
+        <v>9.376552509295861</v>
       </c>
       <c r="D6">
-        <v>2.869212811451324</v>
+        <v>3.523507892467276</v>
       </c>
       <c r="E6">
-        <v>6.582249318256876</v>
+        <v>7.358775328850404</v>
       </c>
       <c r="F6">
-        <v>57.40423567586459</v>
+        <v>33.02986650026994</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>4.251792669778333</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>21.5027373949946</v>
       </c>
       <c r="J6">
-        <v>6.978169431292153</v>
+        <v>6.067715755825855</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>11.6612148792484</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>11.7143447199012</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>15.83902250049176</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -626,37 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>21.50864071280945</v>
+        <v>12.33458395040247</v>
       </c>
       <c r="C7">
-        <v>15.58294384471622</v>
+        <v>9.553910640961453</v>
       </c>
       <c r="D7">
-        <v>2.92497754051293</v>
+        <v>3.567264907570912</v>
       </c>
       <c r="E7">
-        <v>6.624959998179279</v>
+        <v>7.402947325510331</v>
       </c>
       <c r="F7">
-        <v>58.45406250114142</v>
+        <v>33.20918047576285</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>4.251792669778333</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>21.53479573378499</v>
       </c>
       <c r="J7">
-        <v>7.026176764767403</v>
+        <v>6.06570998919936</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>11.86443541163612</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>11.84104530431603</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>15.78510084571272</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -667,37 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>23.88160239197631</v>
+        <v>13.40292344957313</v>
       </c>
       <c r="C8">
-        <v>17.34419315054866</v>
+        <v>10.31537801559023</v>
       </c>
       <c r="D8">
-        <v>3.167467720998129</v>
+        <v>3.757385614555943</v>
       </c>
       <c r="E8">
-        <v>6.828919885517617</v>
+        <v>7.603510238823392</v>
       </c>
       <c r="F8">
-        <v>63.02773961576818</v>
+        <v>34.04249747352333</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>4.251792669778333</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>21.70628499499753</v>
       </c>
       <c r="J8">
-        <v>7.24857462549662</v>
+        <v>6.062187582704992</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>12.73856891500747</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>12.40028310977351</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>15.55637127055097</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -708,37 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>28.21625964616571</v>
+        <v>15.44700240820868</v>
       </c>
       <c r="C9">
-        <v>20.56818367508401</v>
+        <v>11.7241581046779</v>
       </c>
       <c r="D9">
-        <v>3.634865600229964</v>
+        <v>4.116202960998265</v>
       </c>
       <c r="E9">
-        <v>7.288307014313461</v>
+        <v>8.014991599259123</v>
       </c>
       <c r="F9">
-        <v>71.79924619143566</v>
+        <v>35.82641293940014</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>4.251792669778333</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>22.15797667946483</v>
       </c>
       <c r="J9">
-        <v>7.726554886654058</v>
+        <v>6.075465073660776</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>14.35982515309883</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>13.48844115493914</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>15.14179145579735</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -749,37 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>31.24191775545633</v>
+        <v>16.91608578927482</v>
       </c>
       <c r="C10">
-        <v>22.82773366335754</v>
+        <v>12.70323276404398</v>
       </c>
       <c r="D10">
-        <v>3.97956215666987</v>
+        <v>4.368894923448829</v>
       </c>
       <c r="E10">
-        <v>7.667097721746662</v>
+        <v>8.326636594069074</v>
       </c>
       <c r="F10">
-        <v>78.17063731819964</v>
+        <v>37.22722284749781</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>4.251792669778333</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>22.56700253657636</v>
       </c>
       <c r="J10">
-        <v>8.108484105006351</v>
+        <v>6.098532431867334</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>15.68054317642001</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>14.27615641964693</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>14.85893504732227</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -790,37 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>32.59460012126184</v>
+        <v>17.55377918162763</v>
       </c>
       <c r="C11">
-        <v>23.84121279681648</v>
+        <v>13.13610653399716</v>
       </c>
       <c r="D11">
-        <v>4.138573992145085</v>
+        <v>4.481095688767802</v>
       </c>
       <c r="E11">
-        <v>7.850058059517385</v>
+        <v>8.470115296679975</v>
       </c>
       <c r="F11">
-        <v>81.07258883271906</v>
+        <v>37.88394588254888</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>4.251792669778333</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>22.77129886276403</v>
       </c>
       <c r="J11">
-        <v>8.290599262609099</v>
+        <v>6.112148353007187</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>16.27431950837212</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>14.63091391472185</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>14.735278611105</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -831,37 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>33.10459669394875</v>
+        <v>17.79095404567641</v>
       </c>
       <c r="C12">
-        <v>24.22392736546109</v>
+        <v>13.29822451669276</v>
       </c>
       <c r="D12">
-        <v>4.199317805556694</v>
+        <v>4.523163549598505</v>
       </c>
       <c r="E12">
-        <v>7.921070317605385</v>
+        <v>8.524670190912717</v>
       </c>
       <c r="F12">
-        <v>82.17437228027957</v>
+        <v>38.13543554992631</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>4.251792669778333</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>22.85140329146248</v>
       </c>
       <c r="J12">
-        <v>8.360961023318488</v>
+        <v>6.117773543610621</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>16.49520439311259</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>14.76467335140153</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>14.68920679605101</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -872,37 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>32.99483735468721</v>
+        <v>17.74006410021125</v>
       </c>
       <c r="C13">
-        <v>24.1415317892341</v>
+        <v>13.26338945732265</v>
       </c>
       <c r="D13">
-        <v>4.186208021490021</v>
+        <v>4.514122503898773</v>
       </c>
       <c r="E13">
-        <v>7.905695807622711</v>
+        <v>8.512911240665526</v>
       </c>
       <c r="F13">
-        <v>81.93690973450749</v>
+        <v>38.0811478794255</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>4.251792669778333</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>22.83402746772089</v>
       </c>
       <c r="J13">
-        <v>8.345741422803247</v>
+        <v>6.116540860677262</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>16.44780757182873</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>14.73589247934731</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>14.69909505500814</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -913,37 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>32.63659487259304</v>
+        <v>17.57337742324235</v>
       </c>
       <c r="C14">
-        <v>23.87271373306104</v>
+        <v>13.14948012798751</v>
       </c>
       <c r="D14">
-        <v>4.143559401167833</v>
+        <v>4.484565179151359</v>
       </c>
       <c r="E14">
-        <v>7.85586426387974</v>
+        <v>8.474599216655081</v>
       </c>
       <c r="F14">
-        <v>81.16315932290561</v>
+        <v>37.90457984449922</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>4.251792669778333</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>22.77783344872697</v>
       </c>
       <c r="J14">
-        <v>8.296358612860011</v>
+        <v>6.112601619348853</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>16.29257071398941</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>14.64193030631249</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>14.73147293036104</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -954,37 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>32.416909723209</v>
+        <v>17.47071922941943</v>
       </c>
       <c r="C15">
-        <v>23.70794976250604</v>
+        <v>13.07947300962471</v>
       </c>
       <c r="D15">
-        <v>4.117512059405215</v>
+        <v>4.466405110874118</v>
       </c>
       <c r="E15">
-        <v>7.825573145607725</v>
+        <v>8.451160371543509</v>
       </c>
       <c r="F15">
-        <v>80.68967248226959</v>
+        <v>37.79679217919737</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>4.251792669778333</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>22.74377369513549</v>
       </c>
       <c r="J15">
-        <v>8.266299124632651</v>
+        <v>6.110250432115016</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>16.19697034035382</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>14.5842986717526</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>14.75140460960037</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -995,37 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>31.15313380558704</v>
+        <v>16.87380315791298</v>
       </c>
       <c r="C16">
-        <v>22.76129101644484</v>
+        <v>12.67469093011375</v>
       </c>
       <c r="D16">
-        <v>3.969231724087634</v>
+        <v>4.361504766722693</v>
       </c>
       <c r="E16">
-        <v>7.655370639558279</v>
+        <v>8.317292245902205</v>
       </c>
       <c r="F16">
-        <v>77.98124546730145</v>
+        <v>37.1846962407247</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>4.251792669778333</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>22.55402833408745</v>
       </c>
       <c r="J16">
-        <v>8.096766328250791</v>
+        <v>6.097707127437578</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>15.64117800874141</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>14.25289421199417</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>14.86711990238206</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1036,37 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>30.37252722577047</v>
+        <v>16.49984164090121</v>
       </c>
       <c r="C17">
-        <v>22.17749994514692</v>
+        <v>12.42315654393549</v>
       </c>
       <c r="D17">
-        <v>3.878966954641651</v>
+        <v>4.296428140970758</v>
       </c>
       <c r="E17">
-        <v>7.553806418599067</v>
+        <v>8.235588561203889</v>
       </c>
       <c r="F17">
-        <v>76.32208854280557</v>
+        <v>36.81418145371897</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>4.251792669778333</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>22.44237934052343</v>
       </c>
       <c r="J17">
-        <v>7.995029775154807</v>
+        <v>6.090825940377805</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>15.29304568387312</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>14.04861988026039</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>14.93941384582969</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1077,37 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>29.92122711363499</v>
+        <v>16.28186249023098</v>
       </c>
       <c r="C18">
-        <v>21.8402911135239</v>
+        <v>12.27730160714158</v>
       </c>
       <c r="D18">
-        <v>3.827241464442351</v>
+        <v>4.258740055290798</v>
       </c>
       <c r="E18">
-        <v>7.496376549921243</v>
+        <v>8.188756851143495</v>
       </c>
       <c r="F18">
-        <v>75.36794187012033</v>
+        <v>36.60290445965666</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>4.251792669778333</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>22.37987019435096</v>
       </c>
       <c r="J18">
-        <v>7.937287306766101</v>
+        <v>6.087160699610454</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>15.09014194194807</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>13.93079264591472</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>14.98146527695394</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1118,37 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>29.76799555302053</v>
+        <v>16.20756001646289</v>
       </c>
       <c r="C19">
-        <v>21.72584597040394</v>
+        <v>12.22771558248951</v>
       </c>
       <c r="D19">
-        <v>3.809755516983889</v>
+        <v>4.245936093042429</v>
       </c>
       <c r="E19">
-        <v>7.477096251519718</v>
+        <v>8.172929054353318</v>
       </c>
       <c r="F19">
-        <v>75.04485059782461</v>
+        <v>36.53168483836652</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>4.251792669778333</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>22.3589954642595</v>
       </c>
       <c r="J19">
-        <v>7.917864531776209</v>
+        <v>6.085969376705921</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>15.02098119779816</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>13.89084327381369</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>14.99578296298104</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1159,37 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>30.45585619188648</v>
+        <v>16.53994855438714</v>
       </c>
       <c r="C20">
-        <v>22.23978673976878</v>
+        <v>12.45005492170802</v>
       </c>
       <c r="D20">
-        <v>3.888554508647953</v>
+        <v>4.303382529210283</v>
       </c>
       <c r="E20">
-        <v>7.564514689919339</v>
+        <v>8.244269464307754</v>
       </c>
       <c r="F20">
-        <v>76.49867761023178</v>
+        <v>36.85343369710357</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>4.251792669778333</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>22.45408688962694</v>
       </c>
       <c r="J20">
-        <v>8.005778495604424</v>
+        <v>6.09152802541714</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>15.33038031319723</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>14.07040033206634</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>14.93166918348346</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1200,37 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>32.74186922178791</v>
+        <v>17.62245340323358</v>
       </c>
       <c r="C21">
-        <v>23.95169187578166</v>
+        <v>13.18298687463741</v>
       </c>
       <c r="D21">
-        <v>4.156070003119846</v>
+        <v>4.493258453966183</v>
       </c>
       <c r="E21">
-        <v>7.870452171702857</v>
+        <v>8.485846508579828</v>
       </c>
       <c r="F21">
-        <v>81.39032789316346</v>
+        <v>37.95636598886711</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>4.251792669778333</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>22.79426360332096</v>
       </c>
       <c r="J21">
-        <v>8.3108237407062</v>
+        <v>6.113745771814614</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>16.33827432803223</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>14.66954543023819</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>14.72194200318731</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1241,37 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>34.2236573227834</v>
+        <v>18.30488555265762</v>
       </c>
       <c r="C22">
-        <v>25.06495508198012</v>
+        <v>13.65151146662811</v>
       </c>
       <c r="D22">
-        <v>4.334134301555769</v>
+        <v>4.614896821080757</v>
       </c>
       <c r="E22">
-        <v>8.080620936771464</v>
+        <v>8.645021136483694</v>
       </c>
       <c r="F22">
-        <v>84.60575771580908</v>
+        <v>38.69354814753291</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>4.251792669778333</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>23.03262907950037</v>
       </c>
       <c r="J22">
-        <v>8.518477232722848</v>
+        <v>6.131011015003366</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>16.97393013792532</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>15.05772622526387</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>14.58928893162125</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1282,37 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>33.43345179111449</v>
+        <v>17.94291704062606</v>
       </c>
       <c r="C23">
-        <v>24.47089500113886</v>
+        <v>13.40240601679588</v>
       </c>
       <c r="D23">
-        <v>4.238717533205567</v>
+        <v>4.550207667541181</v>
       </c>
       <c r="E23">
-        <v>7.967431532817725</v>
+        <v>8.559955122425871</v>
       </c>
       <c r="F23">
-        <v>82.88694537946033</v>
+        <v>38.29859863942971</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>4.251792669778333</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>22.90390042771502</v>
       </c>
       <c r="J23">
-        <v>8.406809791934712</v>
+        <v>6.121538143465387</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>16.63674383784833</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>14.85087424183164</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>14.65967186145045</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1323,37 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>30.41819109703914</v>
+        <v>16.52182551937916</v>
       </c>
       <c r="C24">
-        <v>22.21163187225469</v>
+        <v>12.43789804089031</v>
       </c>
       <c r="D24">
-        <v>3.884219464565042</v>
+        <v>4.300239303878083</v>
       </c>
       <c r="E24">
-        <v>7.559670501982153</v>
+        <v>8.240344387548507</v>
       </c>
       <c r="F24">
-        <v>76.41884271835842</v>
+        <v>36.83568234760237</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>4.251792669778333</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>22.44878868496395</v>
       </c>
       <c r="J24">
-        <v>8.000916685506136</v>
+        <v>6.091209708361777</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>15.31350992476287</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>14.06055459069425</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>14.935169025608</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1364,37 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>27.07458862239124</v>
+        <v>14.8782830441835</v>
       </c>
       <c r="C25">
-        <v>19.71780539835031</v>
+        <v>11.35265765000515</v>
       </c>
       <c r="D25">
-        <v>3.508733156904424</v>
+        <v>4.020903688067961</v>
       </c>
       <c r="E25">
-        <v>7.157229291727249</v>
+        <v>7.901916772859054</v>
       </c>
       <c r="F25">
-        <v>69.44402110970745</v>
+        <v>35.32790695988366</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>4.251792669778333</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>22.02272135995697</v>
       </c>
       <c r="J25">
-        <v>7.592306611289298</v>
+        <v>6.069610666051824</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>13.93202254735399</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>13.19571721731726</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>15.25021721815147</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_5_7/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_7/res_line/loading_percent.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.68198413835035</v>
+        <v>13.62872295045841</v>
       </c>
       <c r="C2">
-        <v>10.51621557134826</v>
+        <v>10.69096673853173</v>
       </c>
       <c r="D2">
-        <v>3.808053934905866</v>
+        <v>6.276190333643999</v>
       </c>
       <c r="E2">
-        <v>7.659151559605302</v>
+        <v>12.04723991820001</v>
       </c>
       <c r="F2">
-        <v>34.27846458685641</v>
+        <v>45.50761799847226</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I2">
-        <v>21.76030457919184</v>
+        <v>30.69713944760969</v>
       </c>
       <c r="J2">
-        <v>6.062563159154809</v>
+        <v>10.22790188619332</v>
       </c>
       <c r="K2">
-        <v>12.96946285072455</v>
+        <v>14.81760398917559</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>12.55151386374915</v>
+        <v>17.71410498327277</v>
       </c>
       <c r="N2">
-        <v>15.49666412758237</v>
+        <v>23.10245998556931</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.86084975653325</v>
+        <v>13.45722975573768</v>
       </c>
       <c r="C3">
-        <v>9.927476424180368</v>
+        <v>10.57631360748534</v>
       </c>
       <c r="D3">
-        <v>3.660111077491207</v>
+        <v>6.269605433283242</v>
       </c>
       <c r="E3">
-        <v>7.499207319210186</v>
+        <v>12.05130322508267</v>
       </c>
       <c r="F3">
-        <v>33.60550443448369</v>
+        <v>45.48662517687423</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I3">
-        <v>21.61220658509382</v>
+        <v>30.73301094569063</v>
       </c>
       <c r="J3">
-        <v>6.062978711430393</v>
+        <v>10.24619272929466</v>
       </c>
       <c r="K3">
-        <v>12.29298177779011</v>
+        <v>14.71138967262527</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>12.11245650395942</v>
+        <v>17.68454041789051</v>
       </c>
       <c r="N3">
-        <v>15.67238020022948</v>
+        <v>23.15580052701283</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.33750428241889</v>
+        <v>13.35452903539435</v>
       </c>
       <c r="C4">
-        <v>9.555974878701635</v>
+        <v>10.50828343281539</v>
       </c>
       <c r="D4">
-        <v>3.567775473559622</v>
+        <v>6.266529836636754</v>
       </c>
       <c r="E4">
-        <v>7.403467377653869</v>
+        <v>12.05570197436574</v>
       </c>
       <c r="F4">
-        <v>33.21130170663674</v>
+        <v>45.48284905741058</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I4">
-        <v>21.53518692063863</v>
+        <v>30.76015662726954</v>
       </c>
       <c r="J4">
-        <v>6.065689387526939</v>
+        <v>10.25852432375589</v>
       </c>
       <c r="K4">
-        <v>11.86680164069933</v>
+        <v>14.64942813518384</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>11.8425284036073</v>
+        <v>17.6698002950344</v>
       </c>
       <c r="N4">
-        <v>15.78447490809888</v>
+        <v>23.19046458070335</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.11958794198666</v>
+        <v>13.31338244821324</v>
       </c>
       <c r="C5">
-        <v>9.402220843347459</v>
+        <v>10.48118672906387</v>
       </c>
       <c r="D5">
-        <v>3.529826875894433</v>
+        <v>6.265521279454783</v>
       </c>
       <c r="E5">
-        <v>7.365105027859961</v>
+        <v>12.05797392139187</v>
       </c>
       <c r="F5">
-        <v>33.05545489331016</v>
+        <v>45.48360349104158</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I5">
-        <v>21.50718585624757</v>
+        <v>30.77250464953034</v>
       </c>
       <c r="J5">
-        <v>6.067396366830804</v>
+        <v>10.26382665022754</v>
       </c>
       <c r="K5">
-        <v>11.69061550676505</v>
+        <v>14.62502032929406</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>11.7325914360218</v>
+        <v>17.66465637923096</v>
       </c>
       <c r="N5">
-        <v>15.83120078479423</v>
+        <v>23.20507201218714</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.08312821081354</v>
+        <v>13.3065941424708</v>
       </c>
       <c r="C6">
-        <v>9.376552509295861</v>
+        <v>10.47672603467379</v>
       </c>
       <c r="D6">
-        <v>3.523507892467276</v>
+        <v>6.265368633587262</v>
       </c>
       <c r="E6">
-        <v>7.358775328850404</v>
+        <v>12.05838014925637</v>
       </c>
       <c r="F6">
-        <v>33.02986650026994</v>
+        <v>45.48386728991926</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I6">
-        <v>21.5027373949946</v>
+        <v>30.77463264334821</v>
       </c>
       <c r="J6">
-        <v>6.067715755825855</v>
+        <v>10.26472384128545</v>
       </c>
       <c r="K6">
-        <v>11.6612148792484</v>
+        <v>14.62101894965718</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>11.7143447199012</v>
+        <v>17.66385447089107</v>
       </c>
       <c r="N6">
-        <v>15.83902250049176</v>
+        <v>23.20752666645696</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.33458395040247</v>
+        <v>13.3539711970769</v>
       </c>
       <c r="C7">
-        <v>9.553910640961453</v>
+        <v>10.50791542220347</v>
       </c>
       <c r="D7">
-        <v>3.567264907570912</v>
+        <v>6.266515241942443</v>
       </c>
       <c r="E7">
-        <v>7.402947325510331</v>
+        <v>12.05573067268878</v>
       </c>
       <c r="F7">
-        <v>33.20918047576285</v>
+        <v>45.48284994575426</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I7">
-        <v>21.53479573378499</v>
+        <v>30.76031795274289</v>
       </c>
       <c r="J7">
-        <v>6.06570998919936</v>
+        <v>10.25859471047214</v>
       </c>
       <c r="K7">
-        <v>11.86443541163612</v>
+        <v>14.64909552353856</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>11.84104530431603</v>
+        <v>17.66972742325439</v>
       </c>
       <c r="N7">
-        <v>15.78510084571272</v>
+        <v>23.19065963113122</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.40292344957313</v>
+        <v>13.56908461594819</v>
       </c>
       <c r="C8">
-        <v>10.31537801559023</v>
+        <v>10.65096192424879</v>
       </c>
       <c r="D8">
-        <v>3.757385614555943</v>
+        <v>6.273719962790931</v>
       </c>
       <c r="E8">
-        <v>7.603510238823392</v>
+        <v>12.04824624827998</v>
       </c>
       <c r="F8">
-        <v>34.04249747352333</v>
+        <v>45.4984894546978</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I8">
-        <v>21.70628499499753</v>
+        <v>30.70844428241123</v>
       </c>
       <c r="J8">
-        <v>6.062187582704992</v>
+        <v>10.23398022626683</v>
       </c>
       <c r="K8">
-        <v>12.73856891500747</v>
+        <v>14.78032046734931</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>12.40028310977351</v>
+        <v>17.70320581625936</v>
       </c>
       <c r="N8">
-        <v>15.55637127055097</v>
+        <v>23.12045515821158</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15.44700240820868</v>
+        <v>14.00919210843043</v>
       </c>
       <c r="C9">
-        <v>11.7241581046779</v>
+        <v>10.94884274186859</v>
       </c>
       <c r="D9">
-        <v>4.116202960998265</v>
+        <v>6.295456120890998</v>
       </c>
       <c r="E9">
-        <v>8.014991599259123</v>
+        <v>12.04864105365547</v>
       </c>
       <c r="F9">
-        <v>35.82641293940014</v>
+        <v>45.60135339612515</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I9">
-        <v>22.15797667946483</v>
+        <v>30.64741379164501</v>
       </c>
       <c r="J9">
-        <v>6.075465073660776</v>
+        <v>10.19443533245918</v>
       </c>
       <c r="K9">
-        <v>14.35982515309883</v>
+        <v>15.06236727845422</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>13.48844115493914</v>
+        <v>17.79570304893639</v>
       </c>
       <c r="N9">
-        <v>15.14179145579735</v>
+        <v>22.99793482200434</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>16.91608578927482</v>
+        <v>14.3405038778883</v>
       </c>
       <c r="C10">
-        <v>12.70323276404398</v>
+        <v>11.17631988751178</v>
       </c>
       <c r="D10">
-        <v>4.368894923448829</v>
+        <v>6.315963619154449</v>
       </c>
       <c r="E10">
-        <v>8.326636594069074</v>
+        <v>12.0580658506187</v>
       </c>
       <c r="F10">
-        <v>37.22722284749781</v>
+        <v>45.72071058970721</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I10">
-        <v>22.56700253657636</v>
+        <v>30.62745983616417</v>
       </c>
       <c r="J10">
-        <v>6.098532431867334</v>
+        <v>10.1706846859703</v>
       </c>
       <c r="K10">
-        <v>15.68054317642001</v>
+        <v>15.2830834239657</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>14.27615641964693</v>
+        <v>17.87967844615647</v>
       </c>
       <c r="N10">
-        <v>14.85893504732227</v>
+        <v>22.91711806616622</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>17.55377918162763</v>
+        <v>14.49227977336341</v>
       </c>
       <c r="C11">
-        <v>13.13610653399716</v>
+        <v>11.28124851244456</v>
       </c>
       <c r="D11">
-        <v>4.481095688767802</v>
+        <v>6.326254530029013</v>
       </c>
       <c r="E11">
-        <v>8.470115296679975</v>
+        <v>12.06432241226988</v>
       </c>
       <c r="F11">
-        <v>37.88394588254888</v>
+        <v>45.7844399811915</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I11">
-        <v>22.77129886276403</v>
+        <v>30.62379643886287</v>
       </c>
       <c r="J11">
-        <v>6.112148353007187</v>
+        <v>10.16102802841642</v>
       </c>
       <c r="K11">
-        <v>16.27431950837212</v>
+        <v>15.38606779861141</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>14.63091391472185</v>
+        <v>17.92127179712254</v>
       </c>
       <c r="N11">
-        <v>14.735278611105</v>
+        <v>22.8823422746757</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>17.79095404567641</v>
+        <v>14.54985007968512</v>
       </c>
       <c r="C12">
-        <v>13.29822451669276</v>
+        <v>11.32115428197604</v>
       </c>
       <c r="D12">
-        <v>4.523163549598505</v>
+        <v>6.330287523231616</v>
       </c>
       <c r="E12">
-        <v>8.524670190912717</v>
+        <v>12.06697323346824</v>
       </c>
       <c r="F12">
-        <v>38.13543554992631</v>
+        <v>45.80992020810182</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I12">
-        <v>22.85140329146248</v>
+        <v>30.62318792624907</v>
       </c>
       <c r="J12">
-        <v>6.117773543610621</v>
+        <v>10.15753604771355</v>
       </c>
       <c r="K12">
-        <v>16.49520439311259</v>
+        <v>15.42540521260341</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>14.76467335140153</v>
+        <v>17.93750154121341</v>
       </c>
       <c r="N12">
-        <v>14.68920679605101</v>
+        <v>22.86945898187838</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>17.74006410021125</v>
+        <v>14.53744789852866</v>
       </c>
       <c r="C13">
-        <v>13.26338945732265</v>
+        <v>11.31255281130741</v>
       </c>
       <c r="D13">
-        <v>4.514122503898773</v>
+        <v>6.329412932750612</v>
       </c>
       <c r="E13">
-        <v>8.512911240665526</v>
+        <v>12.0663898343351</v>
       </c>
       <c r="F13">
-        <v>38.0811478794255</v>
+        <v>45.80437282529643</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I13">
-        <v>22.83402746772089</v>
+        <v>30.6232843455089</v>
       </c>
       <c r="J13">
-        <v>6.116540860677262</v>
+        <v>10.15828078327838</v>
       </c>
       <c r="K13">
-        <v>16.44780757182873</v>
+        <v>15.41691860505752</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>14.73589247934731</v>
+        <v>17.93398500407339</v>
       </c>
       <c r="N13">
-        <v>14.69909505500814</v>
+        <v>22.87222093515813</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>17.57337742324235</v>
+        <v>14.49701451119293</v>
       </c>
       <c r="C14">
-        <v>13.14948012798751</v>
+        <v>11.28452835481745</v>
       </c>
       <c r="D14">
-        <v>4.484565179151359</v>
+        <v>6.326583613668965</v>
       </c>
       <c r="E14">
-        <v>8.474599216655081</v>
+        <v>12.06453486287503</v>
       </c>
       <c r="F14">
-        <v>37.90457984449922</v>
+        <v>45.78650931066914</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I14">
-        <v>22.77783344872697</v>
+        <v>30.62373076893096</v>
       </c>
       <c r="J14">
-        <v>6.112601619348853</v>
+        <v>10.16073743992181</v>
       </c>
       <c r="K14">
-        <v>16.29257071398941</v>
+        <v>15.3892974899288</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>14.64193030631249</v>
+        <v>17.92259747450528</v>
       </c>
       <c r="N14">
-        <v>14.73147293036104</v>
+        <v>22.88127663761495</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>17.47071922941943</v>
+        <v>14.4722587480998</v>
       </c>
       <c r="C15">
-        <v>13.07947300962471</v>
+        <v>11.26738382522032</v>
       </c>
       <c r="D15">
-        <v>4.466405110874118</v>
+        <v>6.324868221899699</v>
       </c>
       <c r="E15">
-        <v>8.451160371543509</v>
+        <v>12.06343526216071</v>
       </c>
       <c r="F15">
-        <v>37.79679217919737</v>
+        <v>45.77574255261967</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I15">
-        <v>22.74377369513549</v>
+        <v>30.62410563211801</v>
       </c>
       <c r="J15">
-        <v>6.110250432115016</v>
+        <v>10.16226366572373</v>
       </c>
       <c r="K15">
-        <v>16.19697034035382</v>
+        <v>15.37242202540736</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>14.5842986717526</v>
+        <v>17.91568443038052</v>
       </c>
       <c r="N15">
-        <v>14.75140460960037</v>
+        <v>22.88686069316153</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>16.87380315791298</v>
+        <v>14.33060145947367</v>
       </c>
       <c r="C16">
-        <v>12.67469093011375</v>
+        <v>11.1694885579454</v>
       </c>
       <c r="D16">
-        <v>4.361504766722693</v>
+        <v>6.315310248793607</v>
       </c>
       <c r="E16">
-        <v>8.317292245902205</v>
+        <v>12.05769646423157</v>
       </c>
       <c r="F16">
-        <v>37.1846962407247</v>
+        <v>45.71673478991264</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I16">
-        <v>22.55402833408745</v>
+        <v>30.62780821505675</v>
       </c>
       <c r="J16">
-        <v>6.097707127437578</v>
+        <v>10.17133884401649</v>
       </c>
       <c r="K16">
-        <v>15.64117800874141</v>
+        <v>15.27640238179135</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>14.25289421199417</v>
+        <v>17.87702776796262</v>
       </c>
       <c r="N16">
-        <v>14.86711990238206</v>
+        <v>22.91943072234554</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>16.49984164090121</v>
+        <v>14.24393046568118</v>
       </c>
       <c r="C17">
-        <v>12.42315654393549</v>
+        <v>11.1097777620956</v>
       </c>
       <c r="D17">
-        <v>4.296428140970758</v>
+        <v>6.309691537446047</v>
       </c>
       <c r="E17">
-        <v>8.235588561203889</v>
+        <v>12.05467918810088</v>
       </c>
       <c r="F17">
-        <v>36.81418145371897</v>
+        <v>45.68294540673269</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I17">
-        <v>22.44237934052343</v>
+        <v>30.6314665040787</v>
       </c>
       <c r="J17">
-        <v>6.090825940377805</v>
+        <v>10.17719993810478</v>
       </c>
       <c r="K17">
-        <v>15.29304568387312</v>
+        <v>15.21813590415548</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>14.04861988026039</v>
+        <v>17.85417613926873</v>
       </c>
       <c r="N17">
-        <v>14.93941384582969</v>
+        <v>22.9399203395446</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>16.28186249023098</v>
+        <v>14.19418274715003</v>
       </c>
       <c r="C18">
-        <v>12.27730160714158</v>
+        <v>11.07557218989582</v>
       </c>
       <c r="D18">
-        <v>4.258740055290798</v>
+        <v>6.306550490491691</v>
       </c>
       <c r="E18">
-        <v>8.188756851143495</v>
+        <v>12.05312918313306</v>
       </c>
       <c r="F18">
-        <v>36.60290445965666</v>
+        <v>45.66439918325086</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I18">
-        <v>22.37987019435096</v>
+        <v>30.63408023001751</v>
       </c>
       <c r="J18">
-        <v>6.087160699610454</v>
+        <v>10.18067911979567</v>
       </c>
       <c r="K18">
-        <v>15.09014194194807</v>
+        <v>15.18486728476961</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>13.93079264591472</v>
+        <v>17.84135236021178</v>
       </c>
       <c r="N18">
-        <v>14.98146527695394</v>
+        <v>22.95189257957915</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>16.20756001646289</v>
+        <v>14.17735847525451</v>
       </c>
       <c r="C19">
-        <v>12.22771558248951</v>
+        <v>11.06401567726396</v>
       </c>
       <c r="D19">
-        <v>4.245936093042429</v>
+        <v>6.305502628986669</v>
       </c>
       <c r="E19">
-        <v>8.172929054353318</v>
+        <v>12.05263627474195</v>
       </c>
       <c r="F19">
-        <v>36.53168483836652</v>
+        <v>45.65827261516257</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I19">
-        <v>22.3589954642595</v>
+        <v>30.63505269977362</v>
       </c>
       <c r="J19">
-        <v>6.085969376705921</v>
+        <v>10.18187567336286</v>
       </c>
       <c r="K19">
-        <v>15.02098119779816</v>
+        <v>15.17364608193938</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>13.89084327381369</v>
+        <v>17.83706563960059</v>
       </c>
       <c r="N19">
-        <v>14.99578296298104</v>
+        <v>22.9559783292834</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>16.53994855438714</v>
+        <v>14.25314647783613</v>
       </c>
       <c r="C20">
-        <v>12.45005492170802</v>
+        <v>11.11612001024475</v>
       </c>
       <c r="D20">
-        <v>4.303382529210283</v>
+        <v>6.310280289201126</v>
       </c>
       <c r="E20">
-        <v>8.244269464307754</v>
+        <v>12.05498119949226</v>
       </c>
       <c r="F20">
-        <v>36.85343369710357</v>
+        <v>45.68645044624289</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I20">
-        <v>22.45408688962694</v>
+        <v>30.63102433097561</v>
       </c>
       <c r="J20">
-        <v>6.09152802541714</v>
+        <v>10.17656483510016</v>
       </c>
       <c r="K20">
-        <v>15.33038031319723</v>
+        <v>15.22431336902183</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>14.07040033206634</v>
+        <v>17.8565756888155</v>
       </c>
       <c r="N20">
-        <v>14.93166918348346</v>
+        <v>22.93771981762217</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>17.62245340323358</v>
+        <v>14.50888861433496</v>
       </c>
       <c r="C21">
-        <v>13.18298687463741</v>
+        <v>11.29275545174468</v>
       </c>
       <c r="D21">
-        <v>4.493258453966183</v>
+        <v>6.327410979702903</v>
       </c>
       <c r="E21">
-        <v>8.485846508579828</v>
+        <v>12.06507208381893</v>
       </c>
       <c r="F21">
-        <v>37.95636598886711</v>
+        <v>45.79171977297972</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I21">
-        <v>22.79426360332096</v>
+        <v>30.62357850859263</v>
       </c>
       <c r="J21">
-        <v>6.113745771814614</v>
+        <v>10.16001139004107</v>
       </c>
       <c r="K21">
-        <v>16.33827432803223</v>
+        <v>15.39740152120536</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>14.66954543023819</v>
+        <v>17.92592933286066</v>
       </c>
       <c r="N21">
-        <v>14.72194200318731</v>
+        <v>22.87860901137243</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>18.30488555265762</v>
+        <v>14.67656549106376</v>
       </c>
       <c r="C22">
-        <v>13.65151146662811</v>
+        <v>11.40918017596743</v>
       </c>
       <c r="D22">
-        <v>4.614896821080757</v>
+        <v>6.33939873035468</v>
       </c>
       <c r="E22">
-        <v>8.645021136483694</v>
+        <v>12.07330757803522</v>
       </c>
       <c r="F22">
-        <v>38.69354814753291</v>
+        <v>45.86836716450355</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I22">
-        <v>23.03262907950037</v>
+        <v>30.62325117856182</v>
       </c>
       <c r="J22">
-        <v>6.131011015003366</v>
+        <v>10.1501531372438</v>
       </c>
       <c r="K22">
-        <v>16.97393013792532</v>
+        <v>15.51248839313582</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>15.05772622526387</v>
+        <v>17.97404495263578</v>
       </c>
       <c r="N22">
-        <v>14.58928893162125</v>
+        <v>22.84164090774314</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>17.94291704062606</v>
+        <v>14.58704262209039</v>
       </c>
       <c r="C23">
-        <v>13.40240601679588</v>
+        <v>11.34696419554614</v>
       </c>
       <c r="D23">
-        <v>4.550207667541181</v>
+        <v>6.332928971172755</v>
       </c>
       <c r="E23">
-        <v>8.559955122425871</v>
+        <v>12.06876259344203</v>
       </c>
       <c r="F23">
-        <v>38.29859863942971</v>
+        <v>45.82674432728718</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I23">
-        <v>22.90390042771502</v>
+        <v>30.6230105739433</v>
       </c>
       <c r="J23">
-        <v>6.121538143465387</v>
+        <v>10.15532687947678</v>
       </c>
       <c r="K23">
-        <v>16.63674383784833</v>
+        <v>15.45089519528917</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>14.85087424183164</v>
+        <v>17.94811253876559</v>
       </c>
       <c r="N23">
-        <v>14.65967186145045</v>
+        <v>22.86121931396401</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>16.52182551937916</v>
+        <v>14.24897966337062</v>
       </c>
       <c r="C24">
-        <v>12.43789804089031</v>
+        <v>11.11325229404649</v>
       </c>
       <c r="D24">
-        <v>4.300239303878083</v>
+        <v>6.310013836451072</v>
       </c>
       <c r="E24">
-        <v>8.240344387548507</v>
+        <v>12.05484408481507</v>
       </c>
       <c r="F24">
-        <v>36.83568234760237</v>
+        <v>45.68486307672509</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I24">
-        <v>22.44878868496395</v>
+        <v>30.63122264709624</v>
       </c>
       <c r="J24">
-        <v>6.091209708361777</v>
+        <v>10.1768516238737</v>
       </c>
       <c r="K24">
-        <v>15.31350992476287</v>
+        <v>15.2215198196991</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>14.06055459069425</v>
+        <v>17.85548987395009</v>
       </c>
       <c r="N24">
-        <v>14.935169025608</v>
+        <v>22.9387140739038</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.8782830441835</v>
+        <v>13.88850200416772</v>
       </c>
       <c r="C25">
-        <v>11.35265765000515</v>
+        <v>10.86659881047817</v>
       </c>
       <c r="D25">
-        <v>4.020903688067961</v>
+        <v>6.288771260488205</v>
       </c>
       <c r="E25">
-        <v>7.901916772859054</v>
+        <v>12.04692558802496</v>
       </c>
       <c r="F25">
-        <v>35.32790695988366</v>
+        <v>45.56581523101181</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I25">
-        <v>22.02272135995697</v>
+        <v>30.65955843543717</v>
       </c>
       <c r="J25">
-        <v>6.069610666051824</v>
+        <v>10.20420087244857</v>
       </c>
       <c r="K25">
-        <v>13.93202254735399</v>
+        <v>14.98357797878284</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>13.19571721731726</v>
+        <v>17.76783943840659</v>
       </c>
       <c r="N25">
-        <v>15.25021721815147</v>
+        <v>23.0294617783634</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_5_7/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_7/res_line/loading_percent.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.62872295045841</v>
+        <v>13.68198413835038</v>
       </c>
       <c r="C2">
-        <v>10.69096673853173</v>
+        <v>10.51621557134826</v>
       </c>
       <c r="D2">
-        <v>6.276190333643999</v>
+        <v>3.808053934905779</v>
       </c>
       <c r="E2">
-        <v>12.04723991820001</v>
+        <v>7.659151559605302</v>
       </c>
       <c r="F2">
-        <v>45.50761799847226</v>
+        <v>34.27846458685656</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I2">
-        <v>30.69713944760969</v>
+        <v>21.76030457919202</v>
       </c>
       <c r="J2">
-        <v>10.22790188619332</v>
+        <v>6.062563159154892</v>
       </c>
       <c r="K2">
-        <v>14.81760398917559</v>
+        <v>12.96946285072458</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>17.71410498327277</v>
+        <v>12.5515138637492</v>
       </c>
       <c r="N2">
-        <v>23.10245998556931</v>
+        <v>15.49666412758244</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>13.45722975573768</v>
+        <v>12.86084975653329</v>
       </c>
       <c r="C3">
-        <v>10.57631360748534</v>
+        <v>9.927476424180375</v>
       </c>
       <c r="D3">
-        <v>6.269605433283242</v>
+        <v>3.660111077491147</v>
       </c>
       <c r="E3">
-        <v>12.05130322508267</v>
+        <v>7.49920731921013</v>
       </c>
       <c r="F3">
-        <v>45.48662517687423</v>
+        <v>33.6055044344839</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I3">
-        <v>30.73301094569063</v>
+        <v>21.61220658509401</v>
       </c>
       <c r="J3">
-        <v>10.24619272929466</v>
+        <v>6.062978711430304</v>
       </c>
       <c r="K3">
-        <v>14.71138967262527</v>
+        <v>12.29298177779015</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>17.68454041789051</v>
+        <v>12.11245650395944</v>
       </c>
       <c r="N3">
-        <v>23.15580052701283</v>
+        <v>15.67238020022956</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>13.35452903539435</v>
+        <v>12.3375042824189</v>
       </c>
       <c r="C4">
-        <v>10.50828343281539</v>
+        <v>9.555974878701612</v>
       </c>
       <c r="D4">
-        <v>6.266529836636754</v>
+        <v>3.567775473559746</v>
       </c>
       <c r="E4">
-        <v>12.05570197436574</v>
+        <v>7.403467377653876</v>
       </c>
       <c r="F4">
-        <v>45.48284905741058</v>
+        <v>33.21130170663669</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I4">
-        <v>30.76015662726954</v>
+        <v>21.53518692063856</v>
       </c>
       <c r="J4">
-        <v>10.25852432375589</v>
+        <v>6.065689387526882</v>
       </c>
       <c r="K4">
-        <v>14.64942813518384</v>
+        <v>11.86680164069932</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>17.6698002950344</v>
+        <v>11.8425284036073</v>
       </c>
       <c r="N4">
-        <v>23.19046458070335</v>
+        <v>15.78447490809879</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>13.31338244821324</v>
+        <v>12.11958794198661</v>
       </c>
       <c r="C5">
-        <v>10.48118672906387</v>
+        <v>9.402220843347363</v>
       </c>
       <c r="D5">
-        <v>6.265521279454783</v>
+        <v>3.529826875894563</v>
       </c>
       <c r="E5">
-        <v>12.05797392139187</v>
+        <v>7.365105027860004</v>
       </c>
       <c r="F5">
-        <v>45.48360349104158</v>
+        <v>33.05545489330985</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I5">
-        <v>30.77250464953034</v>
+        <v>21.5071858562473</v>
       </c>
       <c r="J5">
-        <v>10.26382665022754</v>
+        <v>6.067396366830747</v>
       </c>
       <c r="K5">
-        <v>14.62502032929406</v>
+        <v>11.69061550676497</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>17.66465637923096</v>
+        <v>11.73259143602172</v>
       </c>
       <c r="N5">
-        <v>23.20507201218714</v>
+        <v>15.83120078479405</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>13.3065941424708</v>
+        <v>12.08312821081354</v>
       </c>
       <c r="C6">
-        <v>10.47672603467379</v>
+        <v>9.376552509295943</v>
       </c>
       <c r="D6">
-        <v>6.265368633587262</v>
+        <v>3.523507892467105</v>
       </c>
       <c r="E6">
-        <v>12.05838014925637</v>
+        <v>7.358775328850253</v>
       </c>
       <c r="F6">
-        <v>45.48386728991926</v>
+        <v>33.02986650026995</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I6">
-        <v>30.77463264334821</v>
+        <v>21.50273739499463</v>
       </c>
       <c r="J6">
-        <v>10.26472384128545</v>
+        <v>6.067715755825793</v>
       </c>
       <c r="K6">
-        <v>14.62101894965718</v>
+        <v>11.66121487924841</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>17.66385447089107</v>
+        <v>11.71434471990114</v>
       </c>
       <c r="N6">
-        <v>23.20752666645696</v>
+        <v>15.8390225004918</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>13.3539711970769</v>
+        <v>12.3345839504025</v>
       </c>
       <c r="C7">
-        <v>10.50791542220347</v>
+        <v>9.553910640961332</v>
       </c>
       <c r="D7">
-        <v>6.266515241942443</v>
+        <v>3.567264907570975</v>
       </c>
       <c r="E7">
-        <v>12.05573067268878</v>
+        <v>7.402947325510407</v>
       </c>
       <c r="F7">
-        <v>45.48284994575426</v>
+        <v>33.20918047576285</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I7">
-        <v>30.76031795274289</v>
+        <v>21.53479573378502</v>
       </c>
       <c r="J7">
-        <v>10.25859471047214</v>
+        <v>6.065709989199386</v>
       </c>
       <c r="K7">
-        <v>14.64909552353856</v>
+        <v>11.8644354116361</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>17.66972742325439</v>
+        <v>11.84104530431603</v>
       </c>
       <c r="N7">
-        <v>23.19065963113122</v>
+        <v>15.7851008457127</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.56908461594819</v>
+        <v>13.40292344957313</v>
       </c>
       <c r="C8">
-        <v>10.65096192424879</v>
+        <v>10.31537801559022</v>
       </c>
       <c r="D8">
-        <v>6.273719962790931</v>
+        <v>3.757385614556028</v>
       </c>
       <c r="E8">
-        <v>12.04824624827998</v>
+        <v>7.603510238823401</v>
       </c>
       <c r="F8">
-        <v>45.4984894546978</v>
+        <v>34.04249747352336</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I8">
-        <v>30.70844428241123</v>
+        <v>21.70628499499752</v>
       </c>
       <c r="J8">
-        <v>10.23398022626683</v>
+        <v>6.062187582704994</v>
       </c>
       <c r="K8">
-        <v>14.78032046734931</v>
+        <v>12.73856891500747</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>17.70320581625936</v>
+        <v>12.40028310977353</v>
       </c>
       <c r="N8">
-        <v>23.12045515821158</v>
+        <v>15.55637127055094</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14.00919210843043</v>
+        <v>15.44700240820861</v>
       </c>
       <c r="C9">
-        <v>10.94884274186859</v>
+        <v>11.7241581046779</v>
       </c>
       <c r="D9">
-        <v>6.295456120890998</v>
+        <v>4.116202960998322</v>
       </c>
       <c r="E9">
-        <v>12.04864105365547</v>
+        <v>8.014991599259211</v>
       </c>
       <c r="F9">
-        <v>45.60135339612515</v>
+        <v>35.82641293940025</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I9">
-        <v>30.64741379164501</v>
+        <v>22.15797667946488</v>
       </c>
       <c r="J9">
-        <v>10.19443533245918</v>
+        <v>6.075465073660838</v>
       </c>
       <c r="K9">
-        <v>15.06236727845422</v>
+        <v>14.35982515309884</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>17.79570304893639</v>
+        <v>13.4884411549392</v>
       </c>
       <c r="N9">
-        <v>22.99793482200434</v>
+        <v>15.1417914557973</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>14.3405038778883</v>
+        <v>16.9160857892749</v>
       </c>
       <c r="C10">
-        <v>11.17631988751178</v>
+        <v>12.703232764044</v>
       </c>
       <c r="D10">
-        <v>6.315963619154449</v>
+        <v>4.368894923448924</v>
       </c>
       <c r="E10">
-        <v>12.0580658506187</v>
+        <v>8.326636594069111</v>
       </c>
       <c r="F10">
-        <v>45.72071058970721</v>
+        <v>37.22722284749759</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I10">
-        <v>30.62745983616417</v>
+        <v>22.56700253657612</v>
       </c>
       <c r="J10">
-        <v>10.1706846859703</v>
+        <v>6.098532431867284</v>
       </c>
       <c r="K10">
-        <v>15.2830834239657</v>
+        <v>15.68054317642012</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>17.87967844615647</v>
+        <v>14.27615641964691</v>
       </c>
       <c r="N10">
-        <v>22.91711806616622</v>
+        <v>14.85893504732209</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>14.49227977336341</v>
+        <v>17.55377918162763</v>
       </c>
       <c r="C11">
-        <v>11.28124851244456</v>
+        <v>13.13610653399716</v>
       </c>
       <c r="D11">
-        <v>6.326254530029013</v>
+        <v>4.481095688767786</v>
       </c>
       <c r="E11">
-        <v>12.06432241226988</v>
+        <v>8.470115296679987</v>
       </c>
       <c r="F11">
-        <v>45.7844399811915</v>
+        <v>37.88394588254899</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I11">
-        <v>30.62379643886287</v>
+        <v>22.77129886276414</v>
       </c>
       <c r="J11">
-        <v>10.16102802841642</v>
+        <v>6.112148353007239</v>
       </c>
       <c r="K11">
-        <v>15.38606779861141</v>
+        <v>16.27431950837212</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>17.92127179712254</v>
+        <v>14.63091391472188</v>
       </c>
       <c r="N11">
-        <v>22.8823422746757</v>
+        <v>14.73527861110507</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>14.54985007968512</v>
+        <v>17.79095404567648</v>
       </c>
       <c r="C12">
-        <v>11.32115428197604</v>
+        <v>13.29822451669277</v>
       </c>
       <c r="D12">
-        <v>6.330287523231616</v>
+        <v>4.523163549598403</v>
       </c>
       <c r="E12">
-        <v>12.06697323346824</v>
+        <v>8.524670190912696</v>
       </c>
       <c r="F12">
-        <v>45.80992020810182</v>
+        <v>38.13543554992628</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I12">
-        <v>30.62318792624907</v>
+        <v>22.85140329146245</v>
       </c>
       <c r="J12">
-        <v>10.15753604771355</v>
+        <v>6.117773543610624</v>
       </c>
       <c r="K12">
-        <v>15.42540521260341</v>
+        <v>16.49520439311262</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>17.93750154121341</v>
+        <v>14.76467335140151</v>
       </c>
       <c r="N12">
-        <v>22.86945898187838</v>
+        <v>14.68920679605097</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>14.53744789852866</v>
+        <v>17.74006410021125</v>
       </c>
       <c r="C13">
-        <v>11.31255281130741</v>
+        <v>13.26338945732265</v>
       </c>
       <c r="D13">
-        <v>6.329412932750612</v>
+        <v>4.514122503898758</v>
       </c>
       <c r="E13">
-        <v>12.0663898343351</v>
+        <v>8.51291124066549</v>
       </c>
       <c r="F13">
-        <v>45.80437282529643</v>
+        <v>38.0811478794255</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I13">
-        <v>30.6232843455089</v>
+        <v>22.83402746772091</v>
       </c>
       <c r="J13">
-        <v>10.15828078327838</v>
+        <v>6.116540860677263</v>
       </c>
       <c r="K13">
-        <v>15.41691860505752</v>
+        <v>16.44780757182876</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>17.93398500407339</v>
+        <v>14.73589247934729</v>
       </c>
       <c r="N13">
-        <v>22.87222093515813</v>
+        <v>14.69909505500813</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>14.49701451119293</v>
+        <v>17.57337742324231</v>
       </c>
       <c r="C14">
-        <v>11.28452835481745</v>
+        <v>13.14948012798747</v>
       </c>
       <c r="D14">
-        <v>6.326583613668965</v>
+        <v>4.484565179151319</v>
       </c>
       <c r="E14">
-        <v>12.06453486287503</v>
+        <v>8.47459921665499</v>
       </c>
       <c r="F14">
-        <v>45.78650931066914</v>
+        <v>37.90457984449939</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I14">
-        <v>30.62373076893096</v>
+        <v>22.77783344872719</v>
       </c>
       <c r="J14">
-        <v>10.16073743992181</v>
+        <v>6.112601619348825</v>
       </c>
       <c r="K14">
-        <v>15.3892974899288</v>
+        <v>16.29257071398935</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>17.92259747450528</v>
+        <v>14.64193030631247</v>
       </c>
       <c r="N14">
-        <v>22.88127663761495</v>
+        <v>14.73147293036123</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>14.4722587480998</v>
+        <v>17.47071922941943</v>
       </c>
       <c r="C15">
-        <v>11.26738382522032</v>
+        <v>13.07947300962476</v>
       </c>
       <c r="D15">
-        <v>6.324868221899699</v>
+        <v>4.466405110874135</v>
       </c>
       <c r="E15">
-        <v>12.06343526216071</v>
+        <v>8.45116037154351</v>
       </c>
       <c r="F15">
-        <v>45.77574255261967</v>
+        <v>37.79679217919749</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I15">
-        <v>30.62410563211801</v>
+        <v>22.74377369513562</v>
       </c>
       <c r="J15">
-        <v>10.16226366572373</v>
+        <v>6.110250432115063</v>
       </c>
       <c r="K15">
-        <v>15.37242202540736</v>
+        <v>16.19697034035383</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>17.91568443038052</v>
+        <v>14.58429867175263</v>
       </c>
       <c r="N15">
-        <v>22.88686069316153</v>
+        <v>14.75140460960052</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>14.33060145947367</v>
+        <v>16.87380315791306</v>
       </c>
       <c r="C16">
-        <v>11.1694885579454</v>
+        <v>12.67469093011379</v>
       </c>
       <c r="D16">
-        <v>6.315310248793607</v>
+        <v>4.361504766722737</v>
       </c>
       <c r="E16">
-        <v>12.05769646423157</v>
+        <v>8.317292245902177</v>
       </c>
       <c r="F16">
-        <v>45.71673478991264</v>
+        <v>37.1846962407247</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I16">
-        <v>30.62780821505675</v>
+        <v>22.55402833408741</v>
       </c>
       <c r="J16">
-        <v>10.17133884401649</v>
+        <v>6.097707127437561</v>
       </c>
       <c r="K16">
-        <v>15.27640238179135</v>
+        <v>15.64117800874149</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>17.87702776796262</v>
+        <v>14.25289421199414</v>
       </c>
       <c r="N16">
-        <v>22.91943072234554</v>
+        <v>14.86711990238205</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>14.24393046568118</v>
+        <v>16.49984164090125</v>
       </c>
       <c r="C17">
-        <v>11.1097777620956</v>
+        <v>12.42315654393549</v>
       </c>
       <c r="D17">
-        <v>6.309691537446047</v>
+        <v>4.296428140970669</v>
       </c>
       <c r="E17">
-        <v>12.05467918810088</v>
+        <v>8.235588561203805</v>
       </c>
       <c r="F17">
-        <v>45.68294540673269</v>
+        <v>36.81418145371904</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I17">
-        <v>30.6314665040787</v>
+        <v>22.44237934052348</v>
       </c>
       <c r="J17">
-        <v>10.17719993810478</v>
+        <v>6.090825940377776</v>
       </c>
       <c r="K17">
-        <v>15.21813590415548</v>
+        <v>15.29304568387309</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>17.85417613926873</v>
+        <v>14.04861988026039</v>
       </c>
       <c r="N17">
-        <v>22.9399203395446</v>
+        <v>14.93941384582976</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.19418274715003</v>
+        <v>16.28186249023093</v>
       </c>
       <c r="C18">
-        <v>11.07557218989582</v>
+        <v>12.27730160714158</v>
       </c>
       <c r="D18">
-        <v>6.306550490491691</v>
+        <v>4.258740055290763</v>
       </c>
       <c r="E18">
-        <v>12.05312918313306</v>
+        <v>8.188756851143445</v>
       </c>
       <c r="F18">
-        <v>45.66439918325086</v>
+        <v>36.60290445965677</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I18">
-        <v>30.63408023001751</v>
+        <v>22.37987019435112</v>
       </c>
       <c r="J18">
-        <v>10.18067911979567</v>
+        <v>6.087160699610455</v>
       </c>
       <c r="K18">
-        <v>15.18486728476961</v>
+        <v>15.090141941948</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>17.84135236021178</v>
+        <v>13.93079264591474</v>
       </c>
       <c r="N18">
-        <v>22.95189257957915</v>
+        <v>14.98146527695406</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.17735847525451</v>
+        <v>16.20756001646296</v>
       </c>
       <c r="C19">
-        <v>11.06401567726396</v>
+        <v>12.22771558248954</v>
       </c>
       <c r="D19">
-        <v>6.305502628986669</v>
+        <v>4.245936093042451</v>
       </c>
       <c r="E19">
-        <v>12.05263627474195</v>
+        <v>8.172929054353382</v>
       </c>
       <c r="F19">
-        <v>45.65827261516257</v>
+        <v>36.53168483836645</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I19">
-        <v>30.63505269977362</v>
+        <v>22.35899546425943</v>
       </c>
       <c r="J19">
-        <v>10.18187567336286</v>
+        <v>6.085969376705873</v>
       </c>
       <c r="K19">
-        <v>15.17364608193938</v>
+        <v>15.02098119779829</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>17.83706563960059</v>
+        <v>13.89084327381367</v>
       </c>
       <c r="N19">
-        <v>22.9559783292834</v>
+        <v>14.99578296298101</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>14.25314647783613</v>
+        <v>16.53994855438721</v>
       </c>
       <c r="C20">
-        <v>11.11612001024475</v>
+        <v>12.45005492170801</v>
       </c>
       <c r="D20">
-        <v>6.310280289201126</v>
+        <v>4.303382529210264</v>
       </c>
       <c r="E20">
-        <v>12.05498119949226</v>
+        <v>8.244269464307655</v>
       </c>
       <c r="F20">
-        <v>45.68645044624289</v>
+        <v>36.85343369710354</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I20">
-        <v>30.63102433097561</v>
+        <v>22.45408688962691</v>
       </c>
       <c r="J20">
-        <v>10.17656483510016</v>
+        <v>6.091528025417114</v>
       </c>
       <c r="K20">
-        <v>15.22431336902183</v>
+        <v>15.33038031319726</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>17.8565756888155</v>
+        <v>14.07040033206631</v>
       </c>
       <c r="N20">
-        <v>22.93771981762217</v>
+        <v>14.93166918348347</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>14.50888861433496</v>
+        <v>17.62245340323357</v>
       </c>
       <c r="C21">
-        <v>11.29275545174468</v>
+        <v>13.18298687463741</v>
       </c>
       <c r="D21">
-        <v>6.327410979702903</v>
+        <v>4.493258453966126</v>
       </c>
       <c r="E21">
-        <v>12.06507208381893</v>
+        <v>8.485846508579833</v>
       </c>
       <c r="F21">
-        <v>45.79171977297972</v>
+        <v>37.95636598886708</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I21">
-        <v>30.62357850859263</v>
+        <v>22.79426360332094</v>
       </c>
       <c r="J21">
-        <v>10.16001139004107</v>
+        <v>6.113745771814621</v>
       </c>
       <c r="K21">
-        <v>15.39740152120536</v>
+        <v>16.33827432803218</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>17.92592933286066</v>
+        <v>14.66954543023819</v>
       </c>
       <c r="N21">
-        <v>22.87860901137243</v>
+        <v>14.72194200318728</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>14.67656549106376</v>
+        <v>18.30488555265766</v>
       </c>
       <c r="C22">
-        <v>11.40918017596743</v>
+        <v>13.6515114666281</v>
       </c>
       <c r="D22">
-        <v>6.33939873035468</v>
+        <v>4.614896821080766</v>
       </c>
       <c r="E22">
-        <v>12.07330757803522</v>
+        <v>8.645021136483713</v>
       </c>
       <c r="F22">
-        <v>45.86836716450355</v>
+        <v>38.69354814753283</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I22">
-        <v>30.62325117856182</v>
+        <v>23.0326290795003</v>
       </c>
       <c r="J22">
-        <v>10.1501531372438</v>
+        <v>6.131011015003387</v>
       </c>
       <c r="K22">
-        <v>15.51248839313582</v>
+        <v>16.97393013792537</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>17.97404495263578</v>
+        <v>15.05772622526386</v>
       </c>
       <c r="N22">
-        <v>22.84164090774314</v>
+        <v>14.5892889316212</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>14.58704262209039</v>
+        <v>17.94291704062607</v>
       </c>
       <c r="C23">
-        <v>11.34696419554614</v>
+        <v>13.40240601679586</v>
       </c>
       <c r="D23">
-        <v>6.332928971172755</v>
+        <v>4.550207667541157</v>
       </c>
       <c r="E23">
-        <v>12.06876259344203</v>
+        <v>8.559955122425853</v>
       </c>
       <c r="F23">
-        <v>45.82674432728718</v>
+        <v>38.29859863942962</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I23">
-        <v>30.6230105739433</v>
+        <v>22.90390042771494</v>
       </c>
       <c r="J23">
-        <v>10.15532687947678</v>
+        <v>6.121538143465368</v>
       </c>
       <c r="K23">
-        <v>15.45089519528917</v>
+        <v>16.63674383784832</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>17.94811253876559</v>
+        <v>14.85087424183163</v>
       </c>
       <c r="N23">
-        <v>22.86121931396401</v>
+        <v>14.65967186145032</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>14.24897966337062</v>
+        <v>16.5218255193791</v>
       </c>
       <c r="C24">
-        <v>11.11325229404649</v>
+        <v>12.43789804089031</v>
       </c>
       <c r="D24">
-        <v>6.310013836451072</v>
+        <v>4.300239303878034</v>
       </c>
       <c r="E24">
-        <v>12.05484408481507</v>
+        <v>8.240344387548385</v>
       </c>
       <c r="F24">
-        <v>45.68486307672509</v>
+        <v>36.83568234760254</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I24">
-        <v>30.63122264709624</v>
+        <v>22.44878868496417</v>
       </c>
       <c r="J24">
-        <v>10.1768516238737</v>
+        <v>6.09120970836164</v>
       </c>
       <c r="K24">
-        <v>15.2215198196991</v>
+        <v>15.31350992476279</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>17.85548987395009</v>
+        <v>14.06055459069425</v>
       </c>
       <c r="N24">
-        <v>22.9387140739038</v>
+        <v>14.93516902560811</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.88850200416772</v>
+        <v>14.87828304418345</v>
       </c>
       <c r="C25">
-        <v>10.86659881047817</v>
+        <v>11.35265765000513</v>
       </c>
       <c r="D25">
-        <v>6.288771260488205</v>
+        <v>4.020903688067945</v>
       </c>
       <c r="E25">
-        <v>12.04692558802496</v>
+        <v>7.901916772858961</v>
       </c>
       <c r="F25">
-        <v>45.56581523101181</v>
+        <v>35.327906959884</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I25">
-        <v>30.65955843543717</v>
+        <v>22.02272135995723</v>
       </c>
       <c r="J25">
-        <v>10.20420087244857</v>
+        <v>6.069610666051721</v>
       </c>
       <c r="K25">
-        <v>14.98357797878284</v>
+        <v>13.93202254735401</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>17.76783943840659</v>
+        <v>13.1957172173173</v>
       </c>
       <c r="N25">
-        <v>23.0294617783634</v>
+        <v>15.25021721815158</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_5_7/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_7/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1132 +415,1282 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.68198413835038</v>
+        <v>24.07984528658606</v>
       </c>
       <c r="C2">
-        <v>10.51621557134826</v>
+        <v>22.45335910810646</v>
       </c>
       <c r="D2">
-        <v>3.808053934905779</v>
+        <v>3.434398987842678</v>
       </c>
       <c r="E2">
-        <v>7.659151559605302</v>
+        <v>9.843923926141523</v>
       </c>
       <c r="F2">
-        <v>34.27846458685656</v>
+        <v>44.07989402751692</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>4.251792669778333</v>
+        <v>1.79230880745205</v>
       </c>
       <c r="I2">
-        <v>21.76030457919202</v>
+        <v>2.770332380510318</v>
       </c>
       <c r="J2">
-        <v>6.062563159154892</v>
+        <v>4.251792669784106</v>
       </c>
       <c r="K2">
-        <v>12.96946285072458</v>
+        <v>25.42971075502549</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>7.564069775266634</v>
       </c>
       <c r="M2">
-        <v>12.5515138637492</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>15.49666412758244</v>
+        <v>0</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.86084975653329</v>
+        <v>22.46661136361646</v>
       </c>
       <c r="C3">
-        <v>9.927476424180375</v>
+        <v>20.90680255019157</v>
       </c>
       <c r="D3">
-        <v>3.660111077491147</v>
+        <v>3.282863086080458</v>
       </c>
       <c r="E3">
-        <v>7.49920731921013</v>
+        <v>9.296158301954243</v>
       </c>
       <c r="F3">
-        <v>33.6055044344839</v>
+        <v>42.04501486762411</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>4.251792669778333</v>
+        <v>2.169391564052976</v>
       </c>
       <c r="I3">
-        <v>21.61220658509401</v>
+        <v>3.068055430383194</v>
       </c>
       <c r="J3">
-        <v>6.062978711430304</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K3">
-        <v>12.29298177779015</v>
+        <v>24.62125917888528</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>7.247527365964379</v>
       </c>
       <c r="M3">
-        <v>12.11245650395944</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>15.67238020022956</v>
+        <v>0</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.3375042824189</v>
+        <v>21.44664021945779</v>
       </c>
       <c r="C4">
-        <v>9.555974878701612</v>
+        <v>19.93258253812688</v>
       </c>
       <c r="D4">
-        <v>3.567775473559746</v>
+        <v>3.1890993328107</v>
       </c>
       <c r="E4">
-        <v>7.403467377653876</v>
+        <v>8.946387899402337</v>
       </c>
       <c r="F4">
-        <v>33.21130170663669</v>
+        <v>40.75056662412037</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>4.251792669778333</v>
+        <v>2.407698715960276</v>
       </c>
       <c r="I4">
-        <v>21.53518692063856</v>
+        <v>3.256458919512816</v>
       </c>
       <c r="J4">
-        <v>6.065689387526882</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K4">
-        <v>11.86680164069932</v>
+        <v>24.11096182006641</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>7.046103694319653</v>
       </c>
       <c r="M4">
-        <v>11.8425284036073</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>15.78447490809879</v>
+        <v>0</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.11958794198661</v>
+        <v>21.01764080479144</v>
       </c>
       <c r="C5">
-        <v>9.402220843347363</v>
+        <v>19.53595427038885</v>
       </c>
       <c r="D5">
-        <v>3.529826875894563</v>
+        <v>3.157228357867955</v>
       </c>
       <c r="E5">
-        <v>7.365105027860004</v>
+        <v>8.803576941355507</v>
       </c>
       <c r="F5">
-        <v>33.05545489330985</v>
+        <v>40.17614634980301</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>4.251792669778333</v>
+        <v>2.507157966494724</v>
       </c>
       <c r="I5">
-        <v>21.5071858562473</v>
+        <v>3.337687462066393</v>
       </c>
       <c r="J5">
-        <v>6.067396366830747</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K5">
-        <v>11.69061550676497</v>
+        <v>23.87180420207566</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>6.96121177537778</v>
       </c>
       <c r="M5">
-        <v>11.73259143602172</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>15.83120078479405</v>
+        <v>0</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.08312821081354</v>
+        <v>20.94566403003982</v>
       </c>
       <c r="C6">
-        <v>9.376552509295943</v>
+        <v>19.48120558081875</v>
       </c>
       <c r="D6">
-        <v>3.523507892467105</v>
+        <v>3.159907928031836</v>
       </c>
       <c r="E6">
-        <v>7.358775328850253</v>
+        <v>8.783438805205639</v>
       </c>
       <c r="F6">
-        <v>33.02986650026995</v>
+        <v>40.03600562195751</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>4.251792669778333</v>
+        <v>2.524493427491744</v>
       </c>
       <c r="I6">
-        <v>21.50273739499463</v>
+        <v>3.355113103150678</v>
       </c>
       <c r="J6">
-        <v>6.067715755825793</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K6">
-        <v>11.66121487924841</v>
+        <v>23.79781190768306</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>6.94571652955404</v>
       </c>
       <c r="M6">
-        <v>11.71434471990114</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>15.8390225004918</v>
+        <v>0</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.3345839504025</v>
+        <v>21.44104514037513</v>
       </c>
       <c r="C7">
-        <v>9.553910640961332</v>
+        <v>19.95861867913618</v>
       </c>
       <c r="D7">
-        <v>3.567264907570975</v>
+        <v>3.210083104745234</v>
       </c>
       <c r="E7">
-        <v>7.402947325510407</v>
+        <v>8.954587692863642</v>
       </c>
       <c r="F7">
-        <v>33.20918047576285</v>
+        <v>40.62425211449161</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>4.251792669778333</v>
+        <v>2.410963797489958</v>
       </c>
       <c r="I7">
-        <v>21.53479573378502</v>
+        <v>3.267846609625132</v>
       </c>
       <c r="J7">
-        <v>6.065709989199386</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K7">
-        <v>11.8644354116361</v>
+        <v>24.01557125567384</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>7.04147936025173</v>
       </c>
       <c r="M7">
-        <v>11.84104530431603</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>15.7851008457127</v>
+        <v>0</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.40292344957313</v>
+        <v>23.5276464753404</v>
       </c>
       <c r="C8">
-        <v>10.31537801559022</v>
+        <v>21.96737442674524</v>
       </c>
       <c r="D8">
-        <v>3.757385614556028</v>
+        <v>3.409052032458758</v>
       </c>
       <c r="E8">
-        <v>7.603510238823401</v>
+        <v>9.670354895243044</v>
       </c>
       <c r="F8">
-        <v>34.04249747352336</v>
+        <v>43.23935236553476</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>4.251792669778333</v>
+        <v>1.923450409528856</v>
       </c>
       <c r="I8">
-        <v>21.70628499499752</v>
+        <v>2.885515892328159</v>
       </c>
       <c r="J8">
-        <v>6.062187582704994</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K8">
-        <v>12.73856891500747</v>
+        <v>25.03633588832833</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>7.452001488721558</v>
       </c>
       <c r="M8">
-        <v>12.40028310977353</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>15.55637127055094</v>
+        <v>0</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15.44700240820861</v>
+        <v>27.28447013713243</v>
       </c>
       <c r="C9">
-        <v>11.7241581046779</v>
+        <v>25.53026745312572</v>
       </c>
       <c r="D9">
-        <v>4.116202960998322</v>
+        <v>3.758063555408422</v>
       </c>
       <c r="E9">
-        <v>8.014991599259211</v>
+        <v>10.95094171662871</v>
       </c>
       <c r="F9">
-        <v>35.82641293940025</v>
+        <v>48.19046755110557</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>4.251792669778333</v>
+        <v>2.092958003834391</v>
       </c>
       <c r="I9">
-        <v>22.15797667946488</v>
+        <v>2.784715796682485</v>
       </c>
       <c r="J9">
-        <v>6.075465073660838</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K9">
-        <v>14.35982515309884</v>
+        <v>27.07839759986176</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>8.206131400175085</v>
       </c>
       <c r="M9">
-        <v>13.4884411549392</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>15.1417914557973</v>
+        <v>0</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>16.9160857892749</v>
+        <v>29.76479492178372</v>
       </c>
       <c r="C10">
-        <v>12.703232764044</v>
+        <v>27.84773173863828</v>
       </c>
       <c r="D10">
-        <v>4.368894923448924</v>
+        <v>4.009616237176929</v>
       </c>
       <c r="E10">
-        <v>8.326636594069111</v>
+        <v>11.64144415942433</v>
       </c>
       <c r="F10">
-        <v>37.22722284749759</v>
+        <v>51.00148988998009</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>4.251792669778333</v>
+        <v>2.693728668647514</v>
       </c>
       <c r="I10">
-        <v>22.56700253657612</v>
+        <v>3.269009762456528</v>
       </c>
       <c r="J10">
-        <v>6.098532431867284</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K10">
-        <v>15.68054317642012</v>
+        <v>28.13615972005008</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>8.59904491495486</v>
       </c>
       <c r="M10">
-        <v>14.27615641964691</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>14.85893504732209</v>
+        <v>0</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>17.55377918162763</v>
+        <v>30.78651657410764</v>
       </c>
       <c r="C11">
-        <v>13.13610653399716</v>
+        <v>28.11384840310663</v>
       </c>
       <c r="D11">
-        <v>4.481095688767786</v>
+        <v>4.061524063806405</v>
       </c>
       <c r="E11">
-        <v>8.470115296679987</v>
+        <v>10.37291780517849</v>
       </c>
       <c r="F11">
-        <v>37.88394588254899</v>
+        <v>47.50073721073678</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>4.251792669778333</v>
+        <v>3.421654909624235</v>
       </c>
       <c r="I11">
-        <v>22.77129886276414</v>
+        <v>3.386065740822111</v>
       </c>
       <c r="J11">
-        <v>6.112148353007239</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K11">
-        <v>16.27431950837212</v>
+        <v>25.70182260229938</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>7.743484721978658</v>
       </c>
       <c r="M11">
-        <v>14.63091391472188</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>14.73527861110507</v>
+        <v>0</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>17.79095404567648</v>
+        <v>31.1471966093623</v>
       </c>
       <c r="C12">
-        <v>13.29822451669277</v>
+        <v>27.82391282967799</v>
       </c>
       <c r="D12">
-        <v>4.523163549598403</v>
+        <v>4.024927099591896</v>
       </c>
       <c r="E12">
-        <v>8.524670190912696</v>
+        <v>9.222765713732697</v>
       </c>
       <c r="F12">
-        <v>38.13543554992628</v>
+        <v>44.07820210698182</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>4.251792669778333</v>
+        <v>4.518711429088223</v>
       </c>
       <c r="I12">
-        <v>22.85140329146245</v>
+        <v>3.388291876655924</v>
       </c>
       <c r="J12">
-        <v>6.117773543610624</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K12">
-        <v>16.49520439311262</v>
+        <v>23.55340269648548</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>7.02130764135611</v>
       </c>
       <c r="M12">
-        <v>14.76467335140151</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>14.68920679605097</v>
+        <v>0</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>17.74006410021125</v>
+        <v>31.03316292762982</v>
       </c>
       <c r="C13">
-        <v>13.26338945732265</v>
+        <v>27.11487392849608</v>
       </c>
       <c r="D13">
-        <v>4.514122503898758</v>
+        <v>3.940724048918565</v>
       </c>
       <c r="E13">
-        <v>8.51291124066549</v>
+        <v>8.110134366123521</v>
       </c>
       <c r="F13">
-        <v>38.0811478794255</v>
+        <v>40.27485648957975</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>4.251792669778333</v>
+        <v>5.722733427579561</v>
       </c>
       <c r="I13">
-        <v>22.83402746772091</v>
+        <v>3.30461995387453</v>
       </c>
       <c r="J13">
-        <v>6.116540860677263</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K13">
-        <v>16.44780757182876</v>
+        <v>21.34459217769556</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>6.367987202194396</v>
       </c>
       <c r="M13">
-        <v>14.73589247934729</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>14.69909505500813</v>
+        <v>0</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>17.57337742324231</v>
+        <v>30.73812485246592</v>
       </c>
       <c r="C14">
-        <v>13.14948012798747</v>
+        <v>26.42669129208247</v>
       </c>
       <c r="D14">
-        <v>4.484565179151319</v>
+        <v>3.862530001394723</v>
       </c>
       <c r="E14">
-        <v>8.47459921665499</v>
+        <v>7.383835232341203</v>
       </c>
       <c r="F14">
-        <v>37.90457984449939</v>
+        <v>37.37873066693761</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>4.251792669778333</v>
+        <v>6.60818521852843</v>
       </c>
       <c r="I14">
-        <v>22.77783344872719</v>
+        <v>3.209009818515032</v>
       </c>
       <c r="J14">
-        <v>6.112601619348825</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K14">
-        <v>16.29257071398935</v>
+        <v>19.75314804078566</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>5.972209568596974</v>
       </c>
       <c r="M14">
-        <v>14.64193030631247</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>14.73147293036123</v>
+        <v>0</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>17.47071922941943</v>
+        <v>30.56331408406886</v>
       </c>
       <c r="C15">
-        <v>13.07947300962476</v>
+        <v>26.17618284694224</v>
       </c>
       <c r="D15">
-        <v>4.466405110874135</v>
+        <v>3.83867539175223</v>
       </c>
       <c r="E15">
-        <v>8.45116037154351</v>
+        <v>7.206250841782145</v>
       </c>
       <c r="F15">
-        <v>37.79679217919749</v>
+        <v>36.55174992546604</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>4.251792669778333</v>
+        <v>6.807311538179642</v>
       </c>
       <c r="I15">
-        <v>22.74377369513562</v>
+        <v>3.167654808687311</v>
       </c>
       <c r="J15">
-        <v>6.110250432115063</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K15">
-        <v>16.19697034035383</v>
+        <v>19.32466907444493</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>5.879760600496068</v>
       </c>
       <c r="M15">
-        <v>14.58429867175263</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>14.75140460960052</v>
+        <v>0</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>16.87380315791306</v>
+        <v>29.57084460972708</v>
       </c>
       <c r="C16">
-        <v>12.67469093011379</v>
+        <v>25.32960047624452</v>
       </c>
       <c r="D16">
-        <v>4.361504766722737</v>
+        <v>3.751363954133964</v>
       </c>
       <c r="E16">
-        <v>8.317292245902177</v>
+        <v>7.065685867166668</v>
       </c>
       <c r="F16">
-        <v>37.1846962407247</v>
+        <v>35.85833478151525</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>4.251792669778333</v>
+        <v>6.502870085275972</v>
       </c>
       <c r="I16">
-        <v>22.55402833408741</v>
+        <v>2.981246096307928</v>
       </c>
       <c r="J16">
-        <v>6.097707127437561</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K16">
-        <v>15.64117800874149</v>
+        <v>19.20582064750191</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>5.815807765676401</v>
       </c>
       <c r="M16">
-        <v>14.25289421199414</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>14.86711990238205</v>
+        <v>0</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:15">
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>16.49984164090125</v>
+        <v>28.95605201562119</v>
       </c>
       <c r="C17">
-        <v>12.42315654393549</v>
+        <v>25.05345056204954</v>
       </c>
       <c r="D17">
-        <v>4.296428140970669</v>
+        <v>3.729229830063643</v>
       </c>
       <c r="E17">
-        <v>8.235588561203805</v>
+        <v>7.337988872088977</v>
       </c>
       <c r="F17">
-        <v>36.81418145371904</v>
+        <v>36.91453149497084</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>4.251792669778333</v>
+        <v>5.740926112886273</v>
       </c>
       <c r="I17">
-        <v>22.44237934052348</v>
+        <v>2.888511460774835</v>
       </c>
       <c r="J17">
-        <v>6.090825940377776</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K17">
-        <v>15.29304568387309</v>
+        <v>19.96308971632967</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>5.963872580475644</v>
       </c>
       <c r="M17">
-        <v>14.04861988026039</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>14.93941384582976</v>
+        <v>0</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:15">
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>16.28186249023093</v>
+        <v>28.61149958582029</v>
       </c>
       <c r="C18">
-        <v>12.27730160714158</v>
+        <v>25.22767270348155</v>
       </c>
       <c r="D18">
-        <v>4.258740055290763</v>
+        <v>3.746414523153412</v>
       </c>
       <c r="E18">
-        <v>8.188756851143445</v>
+        <v>8.095139062406112</v>
       </c>
       <c r="F18">
-        <v>36.60290445965677</v>
+        <v>39.6891086538167</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>4.251792669778333</v>
+        <v>4.537698396789157</v>
       </c>
       <c r="I18">
-        <v>22.37987019435112</v>
+        <v>2.866131013757991</v>
       </c>
       <c r="J18">
-        <v>6.087160699610455</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K18">
-        <v>15.090141941948</v>
+        <v>21.65289770215875</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>6.395002483817231</v>
       </c>
       <c r="M18">
-        <v>13.93079264591474</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>14.98146527695406</v>
+        <v>0</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:15">
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>16.20756001646296</v>
+        <v>28.51584526120116</v>
       </c>
       <c r="C19">
-        <v>12.22771558248954</v>
+        <v>25.79344422783952</v>
       </c>
       <c r="D19">
-        <v>4.245936093042451</v>
+        <v>3.821266528133604</v>
       </c>
       <c r="E19">
-        <v>8.172929054353382</v>
+        <v>9.294625754096153</v>
       </c>
       <c r="F19">
-        <v>36.53168483836645</v>
+        <v>43.43863062644145</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>4.251792669778333</v>
+        <v>3.23957043736507</v>
       </c>
       <c r="I19">
-        <v>22.35899546425943</v>
+        <v>2.914937533726819</v>
       </c>
       <c r="J19">
-        <v>6.085969376705873</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K19">
-        <v>15.02098119779829</v>
+        <v>23.85842446296202</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>7.109536571931245</v>
       </c>
       <c r="M19">
-        <v>13.89084327381367</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>14.99578296298101</v>
+        <v>0</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:15">
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>16.53994855438721</v>
+        <v>29.12888396302856</v>
       </c>
       <c r="C20">
-        <v>12.45005492170801</v>
+        <v>27.32128319042188</v>
       </c>
       <c r="D20">
-        <v>4.303382529210264</v>
+        <v>3.998250501478545</v>
       </c>
       <c r="E20">
-        <v>8.244269464307655</v>
+        <v>11.47918675463958</v>
       </c>
       <c r="F20">
-        <v>36.85343369710354</v>
+        <v>49.9474709911691</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>4.251792669778333</v>
+        <v>2.529981660232218</v>
       </c>
       <c r="I20">
-        <v>22.45408688962691</v>
+        <v>3.148241668710418</v>
       </c>
       <c r="J20">
-        <v>6.091528025417114</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K20">
-        <v>15.33038031319726</v>
+        <v>27.59704557209447</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>8.482577444720715</v>
       </c>
       <c r="M20">
-        <v>14.07040033206631</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>14.93166918348347</v>
+        <v>0</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:15">
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>17.62245340323357</v>
+        <v>30.9568883484761</v>
       </c>
       <c r="C21">
-        <v>13.18298687463741</v>
+        <v>29.15353181887768</v>
       </c>
       <c r="D21">
-        <v>4.493258453966126</v>
+        <v>4.192424939160152</v>
       </c>
       <c r="E21">
-        <v>8.485846508579833</v>
+        <v>12.27956092767937</v>
       </c>
       <c r="F21">
-        <v>37.95636598886708</v>
+        <v>52.93557928533573</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>4.251792669778333</v>
+        <v>3.022920813060092</v>
       </c>
       <c r="I21">
-        <v>22.79426360332094</v>
+        <v>3.533552269482036</v>
       </c>
       <c r="J21">
-        <v>6.113745771814621</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K21">
-        <v>16.33827432803218</v>
+        <v>28.9494823570313</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>8.969451882361101</v>
       </c>
       <c r="M21">
-        <v>14.66954543023819</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>14.72194200318728</v>
+        <v>0</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:15">
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>18.30488555265766</v>
+        <v>32.10247555926433</v>
       </c>
       <c r="C22">
-        <v>13.6515114666281</v>
+        <v>30.23954947624879</v>
       </c>
       <c r="D22">
-        <v>4.614896821080766</v>
+        <v>4.292148867258356</v>
       </c>
       <c r="E22">
-        <v>8.645021136483713</v>
+        <v>12.68369386301359</v>
       </c>
       <c r="F22">
-        <v>38.69354814753283</v>
+        <v>54.68397366519275</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>4.251792669778333</v>
+        <v>3.331310095459971</v>
       </c>
       <c r="I22">
-        <v>23.0326290795003</v>
+        <v>3.776241041869893</v>
       </c>
       <c r="J22">
-        <v>6.131011015003387</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K22">
-        <v>16.97393013792537</v>
+        <v>29.74962812714336</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>9.220902085561473</v>
       </c>
       <c r="M22">
-        <v>15.05772622526386</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>14.5892889316212</v>
+        <v>0</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:15">
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>17.94291704062607</v>
+        <v>31.49636448045662</v>
       </c>
       <c r="C23">
-        <v>13.40240601679586</v>
+        <v>29.63782006831831</v>
       </c>
       <c r="D23">
-        <v>4.550207667541157</v>
+        <v>4.219046726752158</v>
       </c>
       <c r="E23">
-        <v>8.559955122425853</v>
+        <v>12.46001613168211</v>
       </c>
       <c r="F23">
-        <v>38.29859863942962</v>
+        <v>53.86459974469538</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>4.251792669778333</v>
+        <v>3.169036957350088</v>
       </c>
       <c r="I23">
-        <v>22.90390042771494</v>
+        <v>3.644945016849477</v>
       </c>
       <c r="J23">
-        <v>6.121538143465368</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K23">
-        <v>16.63674383784832</v>
+        <v>29.41524165566866</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>9.090654539387069</v>
       </c>
       <c r="M23">
-        <v>14.85087424183163</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>14.65967186145032</v>
+        <v>0</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:15">
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>16.5218255193791</v>
+        <v>29.10406183943079</v>
       </c>
       <c r="C24">
-        <v>12.43789804089031</v>
+        <v>27.32174267300213</v>
       </c>
       <c r="D24">
-        <v>4.300239303878034</v>
+        <v>3.971526617904148</v>
       </c>
       <c r="E24">
-        <v>8.240344387548385</v>
+        <v>11.60454897196913</v>
       </c>
       <c r="F24">
-        <v>36.83568234760254</v>
+        <v>50.50326586674407</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>4.251792669778333</v>
+        <v>2.544831648227332</v>
       </c>
       <c r="I24">
-        <v>22.44878868496417</v>
+        <v>3.147493697717501</v>
       </c>
       <c r="J24">
-        <v>6.09120970836164</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K24">
-        <v>15.31350992476279</v>
+        <v>27.97965032537121</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>8.579837552324827</v>
       </c>
       <c r="M24">
-        <v>14.06055459069425</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>14.93516902560811</v>
+        <v>0</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:15">
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.87828304418345</v>
+        <v>26.31535288414135</v>
       </c>
       <c r="C25">
-        <v>11.35265765000513</v>
+        <v>24.65145105591905</v>
       </c>
       <c r="D25">
-        <v>4.020903688067945</v>
+        <v>3.698247654932495</v>
       </c>
       <c r="E25">
-        <v>7.901916772858961</v>
+        <v>10.63149301510914</v>
       </c>
       <c r="F25">
-        <v>35.327906959884</v>
+        <v>46.70490154709516</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>4.251792669778333</v>
+        <v>1.854804696193003</v>
       </c>
       <c r="I25">
-        <v>22.02272135995723</v>
+        <v>2.603906114119626</v>
       </c>
       <c r="J25">
-        <v>6.069610666051721</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K25">
-        <v>13.93202254735401</v>
+        <v>26.38691415008135</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>8.002595398950442</v>
       </c>
       <c r="M25">
-        <v>13.1957172173173</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>15.25021721815158</v>
+        <v>0</v>
       </c>
       <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_5_7/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_7/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,49 +421,55 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>24.07984528658606</v>
+        <v>24.13626039225955</v>
       </c>
       <c r="C2">
-        <v>22.45335910810646</v>
+        <v>23.85393717675902</v>
       </c>
       <c r="D2">
-        <v>3.434398987842678</v>
+        <v>4.623632362180514</v>
       </c>
       <c r="E2">
-        <v>9.843923926141523</v>
+        <v>10.46637034062516</v>
       </c>
       <c r="F2">
-        <v>44.07989402751692</v>
+        <v>38.45788932788098</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>1.79230880745205</v>
+        <v>1.713267864935733</v>
       </c>
       <c r="I2">
-        <v>2.770332380510318</v>
+        <v>2.61898676822569</v>
       </c>
       <c r="J2">
-        <v>4.251792669784106</v>
+        <v>5.716774528916059</v>
       </c>
       <c r="K2">
-        <v>25.42971075502549</v>
+        <v>20.85964660945726</v>
       </c>
       <c r="L2">
-        <v>7.564069775266634</v>
+        <v>17.08259979603821</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>14.04242421059464</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>7.476154459037097</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -474,49 +480,55 @@
       <c r="Q2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>22.46661136361646</v>
+        <v>22.51298603329182</v>
       </c>
       <c r="C3">
-        <v>20.90680255019157</v>
+        <v>22.22283657783002</v>
       </c>
       <c r="D3">
-        <v>3.282863086080458</v>
+        <v>4.373715976148627</v>
       </c>
       <c r="E3">
-        <v>9.296158301954243</v>
+        <v>9.888778628379784</v>
       </c>
       <c r="F3">
-        <v>42.04501486762411</v>
+        <v>36.99087767867006</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>2.169391564052976</v>
+        <v>2.061862818831783</v>
       </c>
       <c r="I3">
-        <v>3.068055430383194</v>
+        <v>2.876556922496035</v>
       </c>
       <c r="J3">
-        <v>4.251792669778333</v>
+        <v>5.716774528915655</v>
       </c>
       <c r="K3">
-        <v>24.62125917888528</v>
+        <v>20.52657352305787</v>
       </c>
       <c r="L3">
-        <v>7.247527365964379</v>
+        <v>16.97117923951363</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>13.63259806623861</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>7.186736608972969</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -527,49 +539,55 @@
       <c r="Q3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>21.44664021945779</v>
+        <v>21.4567263080677</v>
       </c>
       <c r="C4">
-        <v>19.93258253812688</v>
+        <v>21.17211038215622</v>
       </c>
       <c r="D4">
-        <v>3.1890993328107</v>
+        <v>4.216656734572886</v>
       </c>
       <c r="E4">
-        <v>8.946387899402337</v>
+        <v>9.519605469624539</v>
       </c>
       <c r="F4">
-        <v>40.75056662412037</v>
+        <v>36.06235028293168</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>2.407698715960276</v>
+        <v>2.282502529560444</v>
       </c>
       <c r="I4">
-        <v>3.256458919512816</v>
+        <v>3.040092292377176</v>
       </c>
       <c r="J4">
-        <v>4.251792669778333</v>
+        <v>5.716774528915655</v>
       </c>
       <c r="K4">
-        <v>24.11096182006641</v>
+        <v>20.31760885821016</v>
       </c>
       <c r="L4">
-        <v>7.046103694319653</v>
+        <v>16.89276307057979</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>13.39569927419283</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>7.00265563074994</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -580,49 +598,55 @@
       <c r="Q4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.01764080479144</v>
+        <v>21.01101131698822</v>
       </c>
       <c r="C5">
-        <v>19.53595427038885</v>
+        <v>20.73943329128696</v>
       </c>
       <c r="D5">
-        <v>3.157228357867955</v>
+        <v>4.15758135886158</v>
       </c>
       <c r="E5">
-        <v>8.803576941355507</v>
+        <v>9.368051540070852</v>
       </c>
       <c r="F5">
-        <v>40.17614634980301</v>
+        <v>35.64859742929059</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>2.507157966494724</v>
+        <v>2.374600802704461</v>
       </c>
       <c r="I5">
-        <v>3.337687462066393</v>
+        <v>3.111560407252842</v>
       </c>
       <c r="J5">
-        <v>4.251792669778333</v>
+        <v>5.716774528915655</v>
       </c>
       <c r="K5">
-        <v>23.87180420207566</v>
+        <v>20.21046664677984</v>
       </c>
       <c r="L5">
-        <v>6.96121177537778</v>
+        <v>16.84161147746573</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>13.2881754614986</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>6.925217369112299</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -633,49 +657,55 @@
       <c r="Q5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>20.94566403003982</v>
+        <v>20.93583834505847</v>
       </c>
       <c r="C6">
-        <v>19.48120558081875</v>
+        <v>20.67645086359985</v>
       </c>
       <c r="D6">
-        <v>3.159907928031836</v>
+        <v>4.154809526847084</v>
       </c>
       <c r="E6">
-        <v>8.783438805205639</v>
+        <v>9.345726296997265</v>
       </c>
       <c r="F6">
-        <v>40.03600562195751</v>
+        <v>35.54442618547832</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>2.524493427491744</v>
+        <v>2.390579850030649</v>
       </c>
       <c r="I6">
-        <v>3.355113103150678</v>
+        <v>3.127949849434871</v>
       </c>
       <c r="J6">
-        <v>4.251792669778333</v>
+        <v>5.716774528915655</v>
       </c>
       <c r="K6">
-        <v>23.79781190768306</v>
+        <v>20.1671333798285</v>
       </c>
       <c r="L6">
-        <v>6.94571652955404</v>
+        <v>16.81263583186217</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>13.25231467098477</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>6.911228237252219</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -686,49 +716,55 @@
       <c r="Q6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>21.44104514037513</v>
+        <v>21.45009617665331</v>
       </c>
       <c r="C7">
-        <v>19.95861867913618</v>
+        <v>21.19189273150758</v>
       </c>
       <c r="D7">
-        <v>3.210083104745234</v>
+        <v>4.234899587876521</v>
       </c>
       <c r="E7">
-        <v>8.954587692863642</v>
+        <v>9.525767084963485</v>
       </c>
       <c r="F7">
-        <v>40.62425211449161</v>
+        <v>35.96245107252748</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>2.410963797489958</v>
+        <v>2.285307389155391</v>
       </c>
       <c r="I7">
-        <v>3.267846609625132</v>
+        <v>3.052896546738145</v>
       </c>
       <c r="J7">
-        <v>4.251792669778333</v>
+        <v>5.712988455786178</v>
       </c>
       <c r="K7">
-        <v>24.01557125567384</v>
+        <v>20.24720042086877</v>
       </c>
       <c r="L7">
-        <v>7.04147936025173</v>
+        <v>16.83760903627426</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>13.34415270393255</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>6.998829148933333</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -739,49 +775,55 @@
       <c r="Q7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>23.5276464753404</v>
+        <v>23.58795529381255</v>
       </c>
       <c r="C8">
-        <v>21.96737442674524</v>
+        <v>23.33278028452755</v>
       </c>
       <c r="D8">
-        <v>3.409052032458758</v>
+        <v>4.562036678850029</v>
       </c>
       <c r="E8">
-        <v>9.670354895243044</v>
+        <v>10.28041815818569</v>
       </c>
       <c r="F8">
-        <v>43.23935236553476</v>
+        <v>37.83961513367607</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>1.923450409528856</v>
+        <v>1.834118818847598</v>
       </c>
       <c r="I8">
-        <v>2.885515892328159</v>
+        <v>2.722408457107329</v>
       </c>
       <c r="J8">
-        <v>4.251792669778333</v>
+        <v>5.711640832521052</v>
       </c>
       <c r="K8">
-        <v>25.03633588832833</v>
+        <v>20.6572743181722</v>
       </c>
       <c r="L8">
-        <v>7.452001488721558</v>
+        <v>16.9785212997571</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>13.83163201771454</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>7.374194978653365</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -792,49 +834,55 @@
       <c r="Q8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>27.28447013713243</v>
+        <v>27.31346159498526</v>
       </c>
       <c r="C9">
-        <v>25.53026745312572</v>
+        <v>27.16864497368048</v>
       </c>
       <c r="D9">
-        <v>3.758063555408422</v>
+        <v>5.141954151507981</v>
       </c>
       <c r="E9">
-        <v>10.95094171662871</v>
+        <v>11.63058118760861</v>
       </c>
       <c r="F9">
-        <v>48.19046755110557</v>
+        <v>41.44662442308174</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>2.092958003834391</v>
+        <v>2.110813282723257</v>
       </c>
       <c r="I9">
-        <v>2.784715796682485</v>
+        <v>2.856142893100857</v>
       </c>
       <c r="J9">
-        <v>4.251792669778333</v>
+        <v>5.712301332179654</v>
       </c>
       <c r="K9">
-        <v>27.07839759986176</v>
+        <v>21.54558996184301</v>
       </c>
       <c r="L9">
-        <v>8.206131400175085</v>
+        <v>17.26642392230729</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>14.98457677146782</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>8.063461401957795</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -845,49 +893,55 @@
       <c r="Q9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>29.76479492178372</v>
+        <v>29.7667717553775</v>
       </c>
       <c r="C10">
-        <v>27.84773173863828</v>
+        <v>29.64300956902858</v>
       </c>
       <c r="D10">
-        <v>4.009616237176929</v>
+        <v>5.519180356458548</v>
       </c>
       <c r="E10">
-        <v>11.64144415942433</v>
+        <v>12.35251415809869</v>
       </c>
       <c r="F10">
-        <v>51.00148988998009</v>
+        <v>43.48284881487385</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>2.693728668647514</v>
+        <v>2.663183231031149</v>
       </c>
       <c r="I10">
-        <v>3.269009762456528</v>
+        <v>3.275973183126875</v>
       </c>
       <c r="J10">
-        <v>4.251792669778333</v>
+        <v>5.744419754315621</v>
       </c>
       <c r="K10">
-        <v>28.13615972005008</v>
+        <v>21.92515494301808</v>
       </c>
       <c r="L10">
-        <v>8.59904491495486</v>
+        <v>17.24812326291891</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>15.68258309877193</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>8.416655465698842</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -898,49 +952,55 @@
       <c r="Q10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>30.78651657410764</v>
+        <v>30.78406745622466</v>
       </c>
       <c r="C11">
-        <v>28.11384840310663</v>
+        <v>29.76103032123663</v>
       </c>
       <c r="D11">
-        <v>4.061524063806405</v>
+        <v>5.394968808081725</v>
       </c>
       <c r="E11">
-        <v>10.37291780517849</v>
+        <v>10.98908399609311</v>
       </c>
       <c r="F11">
-        <v>47.50073721073678</v>
+        <v>40.62393317334256</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>3.421654909624235</v>
+        <v>3.396680777684328</v>
       </c>
       <c r="I11">
-        <v>3.386065740822111</v>
+        <v>3.385108568162308</v>
       </c>
       <c r="J11">
-        <v>4.251792669778333</v>
+        <v>5.942780798806009</v>
       </c>
       <c r="K11">
-        <v>25.70182260229938</v>
+        <v>20.08925186109884</v>
       </c>
       <c r="L11">
-        <v>7.743484721978658</v>
+        <v>15.79666672729605</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>14.41866106294705</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>7.585998203851275</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -951,49 +1011,55 @@
       <c r="Q11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>31.1471966093623</v>
+        <v>31.14627071126512</v>
       </c>
       <c r="C12">
-        <v>27.82391282967799</v>
+        <v>29.31848854196448</v>
       </c>
       <c r="D12">
-        <v>4.024927099591896</v>
+        <v>5.189309027983908</v>
       </c>
       <c r="E12">
-        <v>9.222765713732697</v>
+        <v>9.745904712309262</v>
       </c>
       <c r="F12">
-        <v>44.07820210698182</v>
+        <v>37.87553747301126</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>4.518711429088223</v>
+        <v>4.504505871430909</v>
       </c>
       <c r="I12">
-        <v>3.388291876655924</v>
+        <v>3.390683959846276</v>
       </c>
       <c r="J12">
-        <v>4.251792669778333</v>
+        <v>6.092466875987244</v>
       </c>
       <c r="K12">
-        <v>23.55340269648548</v>
+        <v>18.56588282069935</v>
       </c>
       <c r="L12">
-        <v>7.02130764135611</v>
+        <v>14.67657300981338</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>13.26606421963455</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>6.893832901094369</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -1004,49 +1070,55 @@
       <c r="Q12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>31.03316292762982</v>
+        <v>31.03846351507706</v>
       </c>
       <c r="C13">
-        <v>27.11487392849608</v>
+        <v>28.43221744456802</v>
       </c>
       <c r="D13">
-        <v>3.940724048918565</v>
+        <v>4.926991054512978</v>
       </c>
       <c r="E13">
-        <v>8.110134366123521</v>
+        <v>8.531934121919836</v>
       </c>
       <c r="F13">
-        <v>40.27485648957975</v>
+        <v>34.86150798925929</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>5.722733427579561</v>
+        <v>5.718437273166573</v>
       </c>
       <c r="I13">
-        <v>3.30461995387453</v>
+        <v>3.321044384557589</v>
       </c>
       <c r="J13">
-        <v>4.251792669778333</v>
+        <v>6.056017976358584</v>
       </c>
       <c r="K13">
-        <v>21.34459217769556</v>
+        <v>17.08699936593433</v>
       </c>
       <c r="L13">
-        <v>6.367987202194396</v>
+        <v>13.66021264211412</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>12.04474688002775</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>6.278020188077045</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -1057,49 +1129,55 @@
       <c r="Q13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>30.73812485246592</v>
+        <v>30.74960896507429</v>
       </c>
       <c r="C14">
-        <v>26.42669129208247</v>
+        <v>27.60443525937692</v>
       </c>
       <c r="D14">
-        <v>3.862530001394723</v>
+        <v>4.719999679454915</v>
       </c>
       <c r="E14">
-        <v>7.383835232341203</v>
+        <v>7.729300028439355</v>
       </c>
       <c r="F14">
-        <v>37.37873066693761</v>
+        <v>32.58522146461923</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>6.60818521852843</v>
+        <v>6.609389604731707</v>
       </c>
       <c r="I14">
-        <v>3.209009818515032</v>
+        <v>3.240146184200528</v>
       </c>
       <c r="J14">
-        <v>4.251792669778333</v>
+        <v>5.953276842055249</v>
       </c>
       <c r="K14">
-        <v>19.75314804078566</v>
+        <v>16.0664227682241</v>
       </c>
       <c r="L14">
-        <v>5.972209568596974</v>
+        <v>12.9879026299955</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>11.15227948130984</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>5.911898188181102</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1110,49 +1188,55 @@
       <c r="Q14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>30.56331408406886</v>
+        <v>30.57732052684931</v>
       </c>
       <c r="C15">
-        <v>26.17618284694224</v>
+        <v>27.31239558504699</v>
       </c>
       <c r="D15">
-        <v>3.83867539175223</v>
+        <v>4.661995471511923</v>
       </c>
       <c r="E15">
-        <v>7.206250841782145</v>
+        <v>7.532772035554064</v>
       </c>
       <c r="F15">
-        <v>36.55174992546604</v>
+        <v>31.94343556458043</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>6.807311538179642</v>
+        <v>6.810163424112724</v>
       </c>
       <c r="I15">
-        <v>3.167654808687311</v>
+        <v>3.205326288382164</v>
       </c>
       <c r="J15">
-        <v>4.251792669778333</v>
+        <v>5.901744702168163</v>
       </c>
       <c r="K15">
-        <v>19.32466907444493</v>
+        <v>15.80696722061992</v>
       </c>
       <c r="L15">
-        <v>5.879760600496068</v>
+        <v>12.82577877363611</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>10.90759594391446</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>5.828078619963184</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1163,49 +1247,55 @@
       <c r="Q15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>29.57084460972708</v>
+        <v>29.59469626711882</v>
       </c>
       <c r="C16">
-        <v>25.32960047624452</v>
+        <v>26.41739825715437</v>
       </c>
       <c r="D16">
-        <v>3.751363954133964</v>
+        <v>4.551492837026237</v>
       </c>
       <c r="E16">
-        <v>7.065685867166668</v>
+        <v>7.399772112109447</v>
       </c>
       <c r="F16">
-        <v>35.85833478151525</v>
+        <v>31.48066998085191</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>6.502870085275972</v>
+        <v>6.511121885168109</v>
       </c>
       <c r="I16">
-        <v>2.981246096307928</v>
+        <v>3.043834411904109</v>
       </c>
       <c r="J16">
-        <v>4.251792669778333</v>
+        <v>5.738831790925769</v>
       </c>
       <c r="K16">
-        <v>19.20582064750191</v>
+        <v>15.87906787203495</v>
       </c>
       <c r="L16">
-        <v>5.815807765676401</v>
+        <v>12.95099207901375</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>10.816087898114</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>5.775776734149296</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1216,49 +1306,55 @@
       <c r="Q16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>28.95605201562119</v>
+        <v>28.98428655566855</v>
       </c>
       <c r="C17">
-        <v>25.05345056204954</v>
+        <v>26.18222061246465</v>
       </c>
       <c r="D17">
-        <v>3.729229830063643</v>
+        <v>4.580487685235286</v>
       </c>
       <c r="E17">
-        <v>7.337988872088977</v>
+        <v>7.718407563109812</v>
       </c>
       <c r="F17">
-        <v>36.91453149497084</v>
+        <v>32.37223178933909</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>5.740926112886273</v>
+        <v>5.752024842528851</v>
       </c>
       <c r="I17">
-        <v>2.888511460774835</v>
+        <v>2.962701076833722</v>
       </c>
       <c r="J17">
-        <v>4.251792669778333</v>
+        <v>5.713305037326998</v>
       </c>
       <c r="K17">
-        <v>19.96308971632967</v>
+        <v>16.47157744718093</v>
       </c>
       <c r="L17">
-        <v>5.963872580475644</v>
+        <v>13.41103793034038</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>11.2157732975665</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>5.916996981219421</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1269,49 +1365,55 @@
       <c r="Q17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>28.61149958582029</v>
+        <v>28.63995150934216</v>
       </c>
       <c r="C18">
-        <v>25.22767270348155</v>
+        <v>26.48378478215837</v>
       </c>
       <c r="D18">
-        <v>3.746414523153412</v>
+        <v>4.723711076004183</v>
       </c>
       <c r="E18">
-        <v>8.095139062406112</v>
+        <v>8.557045223188906</v>
       </c>
       <c r="F18">
-        <v>39.6891086538167</v>
+        <v>34.60133785783064</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>4.537698396789157</v>
+        <v>4.550451770751117</v>
       </c>
       <c r="I18">
-        <v>2.866131013757991</v>
+        <v>2.939839428342634</v>
       </c>
       <c r="J18">
-        <v>4.251792669778333</v>
+        <v>5.711150574177133</v>
       </c>
       <c r="K18">
-        <v>21.65289770215875</v>
+        <v>17.65354315965131</v>
       </c>
       <c r="L18">
-        <v>6.395002483817231</v>
+        <v>14.28070751427217</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>12.12234963796378</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>6.32358419810351</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1322,49 +1424,55 @@
       <c r="Q18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>28.51584526120116</v>
+        <v>28.54081778163837</v>
       </c>
       <c r="C19">
-        <v>25.79344422783952</v>
+        <v>27.22587433177466</v>
       </c>
       <c r="D19">
-        <v>3.821266528133604</v>
+        <v>4.977094839688815</v>
       </c>
       <c r="E19">
-        <v>9.294625754096153</v>
+        <v>9.852549623190649</v>
       </c>
       <c r="F19">
-        <v>43.43863062644145</v>
+        <v>37.58074827756728</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>3.23957043736507</v>
+        <v>3.251331687793098</v>
       </c>
       <c r="I19">
-        <v>2.914937533726819</v>
+        <v>2.979821862542725</v>
       </c>
       <c r="J19">
-        <v>4.251792669778333</v>
+        <v>5.711490394033151</v>
       </c>
       <c r="K19">
-        <v>23.85842446296202</v>
+        <v>19.15349471444451</v>
       </c>
       <c r="L19">
-        <v>7.109536571931245</v>
+        <v>15.37381690736297</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>13.30120335190643</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>7.002648738284332</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1375,49 +1483,55 @@
       <c r="Q19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>29.12888396302856</v>
+        <v>29.13877116879597</v>
       </c>
       <c r="C20">
-        <v>27.32128319042188</v>
+        <v>29.06283142821288</v>
       </c>
       <c r="D20">
-        <v>3.998250501478545</v>
+        <v>5.468377329781939</v>
       </c>
       <c r="E20">
-        <v>11.47918675463958</v>
+        <v>12.17743809855723</v>
       </c>
       <c r="F20">
-        <v>49.9474709911691</v>
+        <v>42.6928349845946</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>2.529981660232218</v>
+        <v>2.513504416447501</v>
       </c>
       <c r="I20">
-        <v>3.148241668710418</v>
+        <v>3.176233681083391</v>
       </c>
       <c r="J20">
-        <v>4.251792669778333</v>
+        <v>5.714445660903893</v>
       </c>
       <c r="K20">
-        <v>27.59704557209447</v>
+        <v>21.62425325763196</v>
       </c>
       <c r="L20">
-        <v>8.482577444720715</v>
+        <v>17.10867065476694</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>15.3380252749669</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>8.312681704231103</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1428,49 +1542,55 @@
       <c r="Q20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>30.9568883484761</v>
+        <v>30.94251174067373</v>
       </c>
       <c r="C21">
-        <v>29.15353181887768</v>
+        <v>31.04804027114943</v>
       </c>
       <c r="D21">
-        <v>4.192424939160152</v>
+        <v>5.796434985059184</v>
       </c>
       <c r="E21">
-        <v>12.27956092767937</v>
+        <v>13.01864060903964</v>
       </c>
       <c r="F21">
-        <v>52.93557928533573</v>
+        <v>44.92762170107662</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>3.022920813060092</v>
+        <v>2.964795746055108</v>
       </c>
       <c r="I21">
-        <v>3.533552269482036</v>
+        <v>3.507786415037185</v>
       </c>
       <c r="J21">
-        <v>4.251792669778333</v>
+        <v>6.072890156015649</v>
       </c>
       <c r="K21">
-        <v>28.9494823570313</v>
+        <v>22.30409845140555</v>
       </c>
       <c r="L21">
-        <v>8.969451882361101</v>
+        <v>17.36972676150991</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>16.19374102624407</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>8.761986186728349</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1481,49 +1601,55 @@
       <c r="Q21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>32.10247555926433</v>
+        <v>32.07122712071271</v>
       </c>
       <c r="C22">
-        <v>30.23954947624879</v>
+        <v>32.22098720734196</v>
       </c>
       <c r="D22">
-        <v>4.292148867258356</v>
+        <v>5.969254331802844</v>
       </c>
       <c r="E22">
-        <v>12.68369386301359</v>
+        <v>13.44350452596758</v>
       </c>
       <c r="F22">
-        <v>54.68397366519275</v>
+        <v>46.23474281623493</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>3.331310095459971</v>
+        <v>3.24634552029833</v>
       </c>
       <c r="I22">
-        <v>3.776241041869893</v>
+        <v>3.714763343800703</v>
       </c>
       <c r="J22">
-        <v>4.251792669778333</v>
+        <v>6.613666634130162</v>
       </c>
       <c r="K22">
-        <v>29.74962812714336</v>
+        <v>22.70704368780197</v>
       </c>
       <c r="L22">
-        <v>9.220902085561473</v>
+        <v>17.50300352057222</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>16.72859928822357</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>8.990902291469697</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1534,49 +1660,55 @@
       <c r="Q22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>31.49636448045662</v>
+        <v>31.47405930058209</v>
       </c>
       <c r="C23">
-        <v>29.63782006831831</v>
+        <v>31.57794037955389</v>
       </c>
       <c r="D23">
-        <v>4.219046726752158</v>
+        <v>5.859777755881086</v>
       </c>
       <c r="E23">
-        <v>12.46001613168211</v>
+        <v>13.21054009636059</v>
       </c>
       <c r="F23">
-        <v>53.86459974469538</v>
+        <v>45.62747388182714</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>3.169036957350088</v>
+        <v>3.09793880570518</v>
       </c>
       <c r="I23">
-        <v>3.644945016849477</v>
+        <v>3.600967225650346</v>
       </c>
       <c r="J23">
-        <v>4.251792669778333</v>
+        <v>6.216599296839348</v>
       </c>
       <c r="K23">
-        <v>29.41524165566866</v>
+        <v>22.56247495867538</v>
       </c>
       <c r="L23">
-        <v>9.090654539387069</v>
+        <v>17.48275944829129</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>16.49799197546972</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>8.871913427935732</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1587,49 +1719,55 @@
       <c r="Q23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>29.10406183943079</v>
+        <v>29.1133029137327</v>
       </c>
       <c r="C24">
-        <v>27.32174267300213</v>
+        <v>29.08787661149414</v>
       </c>
       <c r="D24">
-        <v>3.971526617904148</v>
+        <v>5.464384386747899</v>
       </c>
       <c r="E24">
-        <v>11.60454897196913</v>
+        <v>12.31406632013716</v>
       </c>
       <c r="F24">
-        <v>50.50326586674407</v>
+        <v>43.13685423243204</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>2.544831648227332</v>
+        <v>2.526322153042292</v>
       </c>
       <c r="I24">
-        <v>3.147493697717501</v>
+        <v>3.172014677145215</v>
       </c>
       <c r="J24">
-        <v>4.251792669778333</v>
+        <v>5.713894566704329</v>
       </c>
       <c r="K24">
-        <v>27.97965032537121</v>
+        <v>21.90273540063433</v>
       </c>
       <c r="L24">
-        <v>8.579837552324827</v>
+        <v>17.3150257680851</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>15.55130114814144</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>8.405595833735456</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1640,49 +1778,55 @@
       <c r="Q24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>26.31535288414135</v>
+        <v>26.35382409275131</v>
       </c>
       <c r="C25">
-        <v>24.65145105591905</v>
+        <v>26.20874081554386</v>
       </c>
       <c r="D25">
-        <v>3.698247654932495</v>
+        <v>5.018616025500623</v>
       </c>
       <c r="E25">
-        <v>10.63149301510914</v>
+        <v>11.29061770057691</v>
       </c>
       <c r="F25">
-        <v>46.70490154709516</v>
+        <v>40.34653475771518</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>1.854804696193003</v>
+        <v>1.892096129939163</v>
       </c>
       <c r="I25">
-        <v>2.603906114119626</v>
+        <v>2.702470379736971</v>
       </c>
       <c r="J25">
-        <v>4.251792669778333</v>
+        <v>5.711175322947495</v>
       </c>
       <c r="K25">
-        <v>26.38691415008135</v>
+        <v>21.19318013703516</v>
       </c>
       <c r="L25">
-        <v>8.002595398950442</v>
+        <v>17.1111090187766</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>14.57314940428537</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>7.87812062956027</v>
       </c>
       <c r="O25">
         <v>0</v>
@@ -1691,6 +1835,12 @@
         <v>0</v>
       </c>
       <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
